--- a/tea.xlsx
+++ b/tea.xlsx
@@ -524,8 +524,9 @@
           <t>https://codeforces.com/contest/38/submission/175293285
 https://codeforces.com/contest/38/submission/175293327 滚动数组
 按照坐标排序。
-定义 f[i][j] 表示考虑前 i 颗弹珠，且最后一个固定的弹珠是 j 时的最小花费，则有：
-f[i][j] = f[i-1][j] + x[i] - x[j],  j &lt; i
+定义 f[i][j] 表示考虑前 i 颗弹珠，且最后一个固定的弹珠是 j 时的最小花费。
+考虑第 i 颗弹珠是否固定，则有：
+f[i][j] = f[i-1][j] + x[i] - x[j], j &lt; i
 f[i][i] = min(f[i-1][j]) + c[i]
 初始 f[0][0] = c[0]，
 答案 min(f[n-1])。

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -491,7 +491,8 @@
 1. i+1=j
 2. max(h[i+1],...,h[j-1]) &lt; min(h[i],h[j])
 3. min(h[i+1],...,h[j-1]) &gt; max(h[i],h[j])
-输出从 1 跳到 n 最少需要多少步。</t>
+输出从 1 跳到 n 最少需要多少步。
+相似题目：LC2297 https://leetcode.cn/problems/jump-game-viii/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -544,7 +544,7 @@
           <t>https://codeforces.com/contest/1420/submission/176225922
 https://codeforces.com/contest/1420/submission/176225199
 对于每个区间的左端点 L，可能存在某些选法，是以 L 为交集的左端点的。
-如果有 m 个区间包含它，且左端点为 L 的区间有 c 个，那么交集包含 L 的方案数为 C(m, k) - C(m-c, k)，即减去不以 L 为交集左端点的方案数。
+如果有 m 个区间包含 L，且左端点为 L 的区间有 c 个，那么以 L 为交集左端点的方案数为 C(m, k) - C(m-c, k)，即减去不以 L 为交集左端点的方案数。
 两种实现方案：扫描线 / 差分哈希表。
 有关组合数的求法，请查阅相关资料。</t>
         </is>

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -523,15 +523,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/submission/1208/176948773
+          <t>https://codeforces.com/problemset/submission/1208/176949672
+233ms with 读入优化 https://codeforces.com/problemset/submission/1208/176949784
 考虑每行能给答案带来多少贡献。
-如果 2m &lt;= w，那么对于最左边的 m 列和最右边的 m 列，选择方案是有约束的（前缀最大值/后缀最大值），其余列可以取 max(max(a),0)，这可以用差分数组统计。
-如果 2m &gt; w，那么问题变成长为 w-m+1 的滑动窗口最大值。这可以用单调队列实现，做法见力扣 239 题 https://leetcode.cn/problems/sliding-window-maximum/</t>
+如果 2m &lt;= w，那么对于最左边的 m-1 列和最右边的 m-1 列，选择方案是有约束的（前缀最大值/后缀最大值），其余列可以取 max(max(a),0)，这可以用差分数组统计。
+如果 2m &gt; w，那么问题变成长为 w-m+1 的滑动窗口最大值。这可以用单调队列实现，做法见力扣 239 题 https://leetcode.cn/problems/sliding-window-maximum/
+最后求差分数组的前缀和，即为答案。</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/submission/1208/176948773</t>
+          <t>https://codeforces.com/problemset/submission/1208/176949672</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -524,7 +524,7 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1208/176949672
-233ms with 读入优化 https://codeforces.com/problemset/submission/1208/176949784
+202ms with 读入优化 https://codeforces.com/contest/1208/submission/176961129
 考虑每行能给答案带来多少贡献。
 如果 2m &lt;= w，那么对于最左边的 m-1 列和最右边的 m-1 列，选择方案是有约束的（前缀最大值/后缀最大值），其余列可以取 max(max(a),0)，这可以用差分数组统计。
 如果 2m &gt; w，那么问题变成长为 w-m+1 的滑动窗口最大值。这可以用单调队列实现，做法见力扣 239 题 https://leetcode.cn/problems/sliding-window-maximum/
@@ -7593,7 +7593,7 @@
 如果全为正数，我们可以找到最小的卡比 x，让它暴风吸入它左右两侧的所有卡比（保留一个最旁边的），然后用这个最旁边的卡比吸入 x，这样最小的卡比取负号，其余卡比均取正号。
 如果全为负数，我们可以找到绝对值最小的卡比，让它暴风吸入它左右两侧的所有卡比即可。
 如果有正有负（把 0 归到正数中），我们可以先让与正数相邻的那个负数把它旁边的正数都暴风吸入（保留一个正数），然后用这个正数暴风吸入其余卡比（这些卡比均为负）。这种情况答案为 sum(abs(a[i]))。
-上述三种情况都可以总结成 max(a)-min(a)-sum(abs(a[i]) for other a[i])
+上述三种情况都可以总结成 max(a)-min(a)+sum(abs(a[i]) for other a[i])
 注意特判 n=1 的情况。</t>
         </is>
       </c>

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -528,7 +528,7 @@
           <t>https://atcoder.jp/contests/abc250/submissions/35814659
 为方便处理，首先把数组 a 转换成升序：
 例如，先把 31412 置换为 12324，然后求前缀最大值得到 12334（不影响答案的正确性）。
-数组 b 也做同样的置换，然后用 https://leetcode.cn/problems/max-chunks-to-make-sorted/ 中提到的技巧，标记 b[i] 应该匹配到 a 中的哪个数字。</t>
+数组 b 也做同样的置换，然后用 https://leetcode.cn/problems/max-chunks-to-make-sorted/ 中提到的技巧，标记 b[i] 应该匹配到 a 中的哪个数。</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -528,7 +528,8 @@
           <t>https://atcoder.jp/contests/abc250/submissions/35814659
 为方便处理，首先把数组 a 转换成升序：
 例如，先把 31412 置换为 12324，然后求前缀最大值得到 12334（不影响答案的正确性）。
-数组 b 也做同样的置换，然后用 https://leetcode.cn/problems/max-chunks-to-make-sorted/ 中提到的技巧，标记 b[i] 应该匹配到 a 中的哪个数。</t>
+数组 b 也做同样的置换，然后我们需要找到一个前缀，恰好包含 1~x 所有数字（即不能有断开的部分）实现方法见 https://leetcode.cn/problems/max-chunks-to-make-sorted/ 中提到的技巧。
+这样可以标记 b[i] 应该匹配到 a 中的哪个数。</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -515,13 +515,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>回忆下 LIS 的 O(nlogn) 做法，在那个做法中，我们需要维护一个有序数组 arr。
+          <t>https://atcoder.jp/contests/abc237/submissions/35930996
+回忆下 LIS 的 O(nlogn) 做法，在那个做法中，我们需要维护一个有序数组 arr。
 定义 f[i][x][y][z] 表示长为 i 且 arr=[x,y,z] 的符合题目要求的数组个数。
 计算 f[i][x][y][z] 时，枚举第 i 个数是多少，按照 LIS 的 O(nlogn) 做法转移到对应的 x/y/z 上。
-答案为 sum(f[n][x][y][z])，1≤x&lt;y&lt;z≤m。</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+代码实现时，可以初始化 f[0][m+1][m+1][m+1] = 1，表示 arr=[inf,inf,inf] 的初始状态。
+答案为 sum(f[n][x][y][z])，1≤x&lt;y&lt;z≤m。
+为了节省内存，可以将元素值改为从 0 开始。</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://atcoder.jp/contests/abc237/submissions/35930996</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -543,6 +550,7 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -513,19 +513,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://atcoder.jp/contests/abc251/submissions/35950425
-下文中的下标从 0 开始。
-假设不是环形的，那么定义 f[i][0/1] 表示喂食前 i 只动物的最小花费，其中 f[i][0] 表示没有花费 a[i]，f[i][1] 表示花费 a[i]。
-则有 f[i][0] = f[i-1][1]，f[i][1] = min(f[i-1][0], f[i-1][1]) + a[i]
-分类讨论：
-如果不花费 a[n-1]，那么初始 f[0][0] = inf，f[0][1] = a[0]，答案为 f[n-1][0]。
-如果花费 a[n-1]，那么初始 f[0][0] = a[n-1]，f[0][1] = a[n-1]+a[0]，答案为 min(f[n-2][0],f[n-2][1])。
-代码实现时 f 可以压缩成两个变量。</t>
+          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-at-abc251-e</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://atcoder.jp/contests/abc251/submissions/35950425</t>
+          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-at-abc251-e</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -488,7 +488,7 @@
           <t>https://atcoder.jp/contests/abc251/tasks/abc251_e
 输入 n (2≤n≤3e5) 和长为 n 的数组 a (1≤a[i]≤1e9)，下标从 1 开始。
 有 n 只动物围成一圈，你可以花费 a[i] 喂食动物 i 和 i+1。特别地，你可以花费 a[n] 喂食动物 n 和 1。
-输出喂食所有动物需要的最小花费。</t>
+输出喂食所有动物需要的最小花费。每只动物可以重复喂食。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -516,11 +516,16 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>上下界思想，计算中位数的最小值和最大值，然后范围内的都可以取到。
-由于偶数长度的中位数会存在小数点后为 0.5 的情况，所以要做一个 *2 的处理。具体技巧</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>https://atcoder.jp/contests/abc169/submissions/13814404
+上下界思想，计算中位数的最小值和最大值，然后范围内的都可以取到。
+由于偶数长度的中位数会存在小数点后为 0.5 的情况，所以要做一个 *2 的处理。具体技巧见代码</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://atcoder.jp/contests/abc169/submissions/13814404</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -542,6 +547,7 @@
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -516,14 +516,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://atcoder.jp/contests/abc169/submissions/13814404
+          <t>https://atcoder.jp/contests/abc169/submissions/35971735
 上下界思想，计算中位数的最小值和最大值，然后范围内的都可以取到。
-由于偶数长度的中位数会存在小数点后为 0.5 的情况，所以要做一个 *2 的处理。具体技巧见代码</t>
+由于偶数长度的中位数会存在小数点后为 0.5 的情况，所以答案是可以 *2 的。具体见代码。</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://atcoder.jp/contests/abc169/submissions/13814404</t>
+          <t>https://atcoder.jp/contests/abc169/submissions/35971735</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -855,7 +855,7 @@
         <is>
           <t>https://atcoder.jp/contests/abc221/tasks/abc221_e
 【更新通知】
-从今天开始，带你们刷 AtCoder 啦！
+从今天开始，带你们刷 AtCoder 啦！难度分大概是之前的 -400
 输入 n(≤3e5) 和长为 n 的数组 a (1≤a[i]≤1e9)。
 输出有多少个 a 的长度至少为 2 的子序列，满足子序列的第一项 ≤ 子序列的最后一项。
 由于答案很大，输出答案模 998244353 的结果。 

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -516,7 +516,7 @@
         <is>
           <t>https://atcoder.jp/contests/abc252/submissions/36006064
 逆向思维，把分割看成合并。这样就转换成经典的 Huffman 问题，用最小堆实现。
-如果 sum(a) &lt; L，可以把多余的面包额外当成一个小孩需要的。</t>
+如果 sum(a) &lt; L，可以把多余的面包额外当成一个新的小孩需要的。</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -489,7 +489,7 @@
 输入 n (2≤n≤2e5) 和长为 n 的数组 a (1≤a[i]≤1e9)，表示每个节点的点权。
 然后输入一棵树的 n-1 条边（节点编号从 1 开始）。
 输出 n 个数，第 i 个数为从节点 1 到节点 i 的路径上点权的 LIS 长度。
-注：LIS 指最长上升子序列。</t>
+注：LIS 指最长严格递增子序列。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -528,7 +528,8 @@
         <is>
           <t>https://atcoder.jp/contests/abc173/submissions/36127951
 提示 1：假设一开始没有边，答案是多少？
-提示 2：把边一条一条地加到树上，每加一条边，答案减少了多少？（考虑哪些区间可以包含这条边）</t>
+提示 2：把边一条一条地加到树上，每加一条边，答案减少了多少？
+提示 3：任何一个包含该边的两端点的区间 [L,R]，连通块的个数都会减少 1。有多少个这样的区间？</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD339"/>
+  <dimension ref="A1:AA339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,11 +659,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://atcoder.jp/contests/abl/tasks/abl_e</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>输入
 8 5
 3 6 2
@@ -684,10 +679,10 @@
 641437905</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="D4" t="n">
         <v>1706</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://atcoder.jp/contests/abl/submissions/36147029
 珂朵莉树练习题。
@@ -695,11 +690,8 @@
 比如把 111xxx 替换成 333xxx，那么 ans 增加了 (3-1)*111*1000。</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abl/submissions/36147029</t>
-        </is>
-      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -720,8 +712,6 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -738,11 +728,6 @@
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc173/tasks/abc173_f</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>输入
 3
@@ -767,10 +752,10 @@
 输出 113</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="D5" t="n">
         <v>1892</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://atcoder.jp/contests/abc173/submissions/36127951
 提示 1：假设一开始没有边，答案是多少？
@@ -778,11 +763,8 @@
 提示 3：任何一个包含该边的两端点的区间 [L,R]，连通块的个数都会减少 1。有多少个这样的区间？</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc173/submissions/36127951</t>
-        </is>
-      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -803,8 +785,6 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -822,11 +802,6 @@
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc165/tasks/abc165_f</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t>输入
 10
@@ -853,23 +828,20 @@
 3</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1843（实际应该没这么高）</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>1843（实际应该没这么高）</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>https://atcoder.jp/contests/abc165/submissions/12963027
 DFS 这棵树，把路径看成序列，用 O(nlogn) 的做法求 LIS。
 回溯的时候注意还原现场。</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc165/submissions/12963027</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -890,8 +862,6 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -909,11 +879,6 @@
         </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc252/tasks/abc252_f</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
         <is>
           <t>输入
 5 7
@@ -925,21 +890,18 @@
 输出 1000005000000000</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="D7" t="n">
         <v>1609</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://atcoder.jp/contests/abc252/submissions/36006064
 逆向思维，把分割看成合并。这样就转换成经典的 Huffman 问题，用最小堆实现。
 如果 sum(a) &lt; L，可以把多余的面包额外当成一个新的小孩需要的。</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc252/submissions/36006064</t>
-        </is>
-      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -960,8 +922,6 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -979,11 +939,6 @@
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc255/tasks/abc255_e</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
         <is>
           <t>输入
 9 2
@@ -998,19 +953,16 @@
 输出 8</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="D8" t="n">
         <v>1519</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.luogu.com.cn/blog/endlesscheng/solution-at-abc255-e</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-at-abc255-e</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1031,8 +983,6 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1049,11 +999,6 @@
         </is>
       </c>
       <c r="C9" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc169/tasks/abc169_e</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
         <is>
           <t>输入
 2
@@ -1068,21 +1013,18 @@
 输出 9991</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="D9" t="n">
         <v>1353</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://atcoder.jp/contests/abc169/submissions/35971735
 上下界思想，计算中位数的最小值和最大值，然后范围内的都可以取到。
 由于偶数长度的中位数会存在小数点后为 0.5 的情况，所以答案是可以 *2 的。具体见代码。</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc169/submissions/35971735</t>
-        </is>
-      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -1103,8 +1045,6 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1121,11 +1061,6 @@
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc251/tasks/abc251_e</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>输入
 5
@@ -1137,19 +1072,16 @@
 输出 426</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="D10" t="n">
         <v>1227</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.luogu.com.cn/blog/endlesscheng/solution-at-abc251-e</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-at-abc251-e</t>
-        </is>
-      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1170,8 +1102,6 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1193,11 +1123,6 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://atcoder.jp/contests/abc237/tasks/abc237_f</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>输入 4 5
 输出 135
 输入 3 4
@@ -1206,10 +1131,10 @@
 输出 144980434</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="D11" t="n">
         <v>1857</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://atcoder.jp/contests/abc237/submissions/35930996
 回忆下 LIS 的 O(nlogn) 做法，在那个做法中，我们需要维护一个有序数组 arr。
@@ -1220,11 +1145,8 @@
 为了节省内存，可以将元素值改为从 0 开始。</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc237/submissions/35930996</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1245,8 +1167,6 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1263,11 +1183,6 @@
         </is>
       </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc250/tasks/abc250_e</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
         <is>
           <t>输入
 5
@@ -1291,10 +1206,10 @@
 No</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="D12" t="n">
         <v>1421</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://atcoder.jp/contests/abc250/submissions/35814659
 为方便处理，首先把数组 a 转换成升序：
@@ -1303,11 +1218,8 @@
 这样可以标记 b[i] 应该匹配到 a 中的哪个数。</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc250/submissions/35814659</t>
-        </is>
-      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1328,8 +1240,6 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1349,11 +1259,6 @@
         </is>
       </c>
       <c r="C13" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc221/tasks/abc221_e</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
         <is>
           <t>输入
 3
@@ -1375,10 +1280,10 @@
 输出 830</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="D13" t="n">
         <v>1515</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://atcoder.jp/contests/abc221/submissions/35791225
 这是一道基于逆序对的变形题。
@@ -1389,11 +1294,8 @@
 代码中展示了一个巧妙计算逆元的技巧。</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/abc221/submissions/35791225</t>
-        </is>
-      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1414,8 +1316,6 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1436,11 +1336,6 @@
         </is>
       </c>
       <c r="C14" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1208/E</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
         <is>
           <t xml:space="preserve">输入
 3 3
@@ -1458,10 +1353,10 @@
 7 8 </t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="D14" t="n">
         <v>2200</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1208/176949672
 202ms with 读入优化 https://codeforces.com/contest/1208/submission/176961129
@@ -1471,11 +1366,8 @@
 最后求差分数组的前缀和，即为答案。</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1208/176949672</t>
-        </is>
-      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1496,8 +1388,6 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1514,11 +1404,6 @@
         </is>
       </c>
       <c r="C15" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1420/D</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
         <is>
           <t>输入
 7 3
@@ -1558,10 +1443,10 @@
 输出 7</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="D15" t="n">
         <v>1800</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1420/submission/176225922
 https://codeforces.com/contest/1420/submission/176225199
@@ -1571,11 +1456,8 @@
 有关组合数 + 逆元，请查阅相关资料。</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1420/submission/176225922</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1596,8 +1478,6 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1617,11 +1497,6 @@
         </is>
       </c>
       <c r="C16" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/767/C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
         <is>
           <t>输入
 6
@@ -1644,21 +1519,18 @@
 输出 -1</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="D16" t="n">
         <v>2000</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/767/submission/174193693
 做法类似双周赛 t4，每统计到一个点权和等于 total / 3 的连通块，就断开它和父节点的边。取前两个作为答案。
 https://www.bilibili.com/video/BV1cV4y157BY</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/767/submission/174193693</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1679,8 +1551,6 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1701,11 +1571,6 @@
         </is>
       </c>
       <c r="C17" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1407/D</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
         <is>
           <t>输入
 5
@@ -1725,10 +1590,10 @@
 输出 2</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="D17" t="n">
         <v>2200</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.luogu.com.cn/blog/173660/solution-cf1407d
 画画图，找找转移来源。转移来源有什么规律？
@@ -1736,11 +1601,8 @@
 也可以把 DP 放到单调栈里面：https://codeforces.com/contest/1407/submission/175820402</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/173660/solution-cf1407d</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1761,8 +1623,6 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1778,11 +1638,6 @@
         </is>
       </c>
       <c r="C18" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1286/A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
         <is>
           <t>输入
 5
@@ -1794,20 +1649,17 @@
 输出 1</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="D18" t="n">
         <v>1800</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1286a
 我的洛谷题解👆</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1286a</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1828,8 +1680,6 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1846,11 +1696,6 @@
         </is>
       </c>
       <c r="C19" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1651/D</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
         <is>
           <t>输入
 6
@@ -1888,10 +1733,10 @@
 3 2</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="D19" t="n">
         <v>1900</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1651/submission/175313097
 把输入想象成海岛（群岛），对每个点，求其最近的海岸点。
@@ -1901,11 +1746,8 @@
 相似题目：https://leetcode.cn/problems/pacific-atlantic-water-flow/</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1651/submission/175313097</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1926,8 +1768,6 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1950,11 +1790,6 @@
         </is>
       </c>
       <c r="C20" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/988/problem/F</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
         <is>
           <t>输入
 10 2 4
@@ -1977,13 +1812,13 @@
 输出 -1</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>2100 (个人估计 1900)
 昨天的题可能有帮助</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/988/submission/175402975
 为方便计算答案，假设 dst 处（或者最后一个下雨的位置）还有一把伞。
@@ -1994,11 +1829,8 @@
 详细注释见代码，时间复杂度 O(m^2)。</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/988/submission/175402975</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -2019,8 +1851,6 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2040,11 +1870,6 @@
         </is>
       </c>
       <c r="C21" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/38/E</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
         <is>
           <t>输入
 3
@@ -2061,10 +1886,10 @@
 输出 11</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="D21" t="n">
         <v>1800</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/38/submission/175293285
 https://codeforces.com/contest/38/submission/175293327 滚动数组
@@ -2078,11 +1903,8 @@
 代码实现时，第一个维度可以去掉。</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/38/submission/175293285</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2103,8 +1925,6 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2122,11 +1942,6 @@
         </is>
       </c>
       <c r="C22" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/862/E</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
         <is>
           <t>输入
 5 6 3
@@ -2143,10 +1958,10 @@
 解释 答案分别为 f(0) f(1) f(1) f(0)</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="D22" t="n">
         <v>2100</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/862/submission/174832813
 提示 1：对于 f(j)，把 a[i] 和 b[i+j] 分别计算。
@@ -2158,11 +1973,8 @@
 提示 5：对于区间 +x 操作，注意到我们算的是交替和，中间的 +x -x 互相抵消，因此对 sa 的影响只有 +x -x 不变 这三种，根据 l 和 r 的奇偶性分类讨论。</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/862/submission/174832813</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -2183,8 +1995,6 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2201,11 +2011,6 @@
         </is>
       </c>
       <c r="C23" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/754/D</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
         <is>
           <t xml:space="preserve">输入
 4 2
@@ -2236,13 +2041,13 @@
 3 4 </t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>2100
 输出方案也许值 200 分</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/754/174797228
 Python https://codeforces.com/problemset/submission/754/174840684
@@ -2253,11 +2058,8 @@
 最后再次遍历区间，输出 k 个包含并集的区间编号。</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/754/174797228</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -2278,8 +2080,6 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2298,11 +2098,6 @@
         </is>
       </c>
       <c r="C24" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/811/C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
         <is>
           <t>输入
 6
@@ -2316,10 +2111,10 @@
 解释 选择 [3] [2,4,2]，3+(2^4)=9</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="D24" t="n">
         <v>1900</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>左右位置：https://codeforces.com/contest/811/submission/174568758
 元素个数（代码更短）：https://codeforces.com/contest/811/submission/174568255
@@ -2327,6 +2122,7 @@
 判断合法有两种写法，见上面的代码。</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -2348,7 +2144,6 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2365,11 +2160,6 @@
         </is>
       </c>
       <c r="C25" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/863/E</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
         <is>
           <t>输入
 3
@@ -2396,10 +2186,10 @@
 输出 2</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="D25" t="n">
         <v>2000</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/863/submission/174510216
 方法一：会议室/上下车模型。把每个区间都+1，如果存在一个区间，其范围内的值都 ≥2，那么可以移除该区间。
@@ -2411,11 +2201,8 @@
 实现见代码。</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/863/submission/174510216</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -2436,8 +2223,6 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2454,11 +2239,6 @@
         </is>
       </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/276/D</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
         <is>
           <t>输入 1 2
 输出 3
@@ -2468,10 +2248,10 @@
 输出 0</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="D26" t="n">
         <v>1700</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/276/submission/118793107
 如果 L 和 R 的二进制长度不一样，例如 L=2，R=9，那么我们可以用 7^8 得到最大的异或和 15。
@@ -2480,11 +2260,8 @@
 思考题代码 https://github.com/EndlessCheng/codeforces-go/blob/master/copypasta/bits.go#L632</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/276/submission/118793107</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -2505,8 +2282,6 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2526,11 +2301,6 @@
         </is>
       </c>
       <c r="C27" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/965/D</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
         <is>
           <t>输入
 10 5
@@ -2544,21 +2314,18 @@
 解释 0-3-6-9-10, 0-2-5-8-10, 0-1-4-7-10</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="D27" t="n">
         <v>1900</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/965/submission/174185143
 答案为长为 L 的最小子数组和。
 证明：看成是网络流问题，由于最大流等于最小割，得证。</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/965/submission/174185143</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2579,8 +2346,6 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2598,11 +2363,6 @@
         </is>
       </c>
       <c r="C28" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1178/E</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
         <is>
           <t>输入 cacbac
 输出 aba
@@ -2612,10 +2372,10 @@
 输出 cbaaacbcaaabc</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="D28" t="n">
         <v>1900</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1178/submission/173928518
 位运算做法 https://codeforces.com/contest/1178/submission/173928055
@@ -2625,11 +2385,8 @@
 提示 3：如果剩余字符不足 4 个，可以任取一个字符，作为 t 的回文中心。</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1178/submission/173928518</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2650,8 +2407,6 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2669,11 +2424,6 @@
         </is>
       </c>
       <c r="C29" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/558/C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
         <is>
           <t>输入
 3
@@ -2687,10 +2437,10 @@
 解释 都变成 1。</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="D29" t="n">
         <v>1900</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/558/submission/173900538
 方法一：朴素思路
@@ -2708,11 +2458,8 @@
 如果 cnt[2v] &gt; n-cnt[2v] 不成立，其实可以直接退出循环，这是因为数字越大 cnt 值就越小。</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/558/submission/173900538</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2733,8 +2480,6 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2753,11 +2498,6 @@
         </is>
       </c>
       <c r="C30" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/292/E</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
         <is>
           <t>输入
 5 10
@@ -2783,10 +2523,10 @@
 -1</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="D30" t="n">
         <v>1900</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/292/submission/173659179
 https://codeforces.com/contest/292/submission/173666674
@@ -2798,11 +2538,8 @@
 双向操作大概要一个支持可持久化+分裂合并的数据结构。</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/292/submission/173659179</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2823,8 +2560,6 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2843,11 +2578,6 @@
         </is>
       </c>
       <c r="C31" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/274/B</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
         <is>
           <t>输入
 3
@@ -2858,10 +2588,10 @@
 3</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="D31" t="n">
         <v>1800</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/274/submission/173643473
 提示 1：根据题意，以 1 为根，需要先把叶子节点变为 0，才能处理父节点。
@@ -2869,11 +2599,8 @@
 提示 3：由于子节点有负有正，需要分别计算对应的操作次数，并返回，继续传递给祖先节点。</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/274/submission/173643473</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2894,8 +2621,6 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2914,11 +2639,6 @@
         </is>
       </c>
       <c r="C32" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1213/G</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
         <is>
           <t xml:space="preserve">输入
 7 5
@@ -2945,10 +2665,10 @@
 1 3 3 </t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="D32" t="n">
         <v>1800</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1213/submission/160406169
 提示 1：离线询问，把边权和询问都从小到大排序。
@@ -2956,11 +2676,8 @@
 合并时，两个连通块的大小的乘积累加到答案中。</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1213/submission/160406169</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -2981,8 +2698,6 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2999,11 +2714,6 @@
         </is>
       </c>
       <c r="C33" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/522/D</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
         <is>
           <t>输入
 5 3
@@ -3031,10 +2741,10 @@
 2</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="D33" t="n">
         <v>2000</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/522/submission/173138916
 本题用到的技巧十分经典（指提示 4），如果你对此题没有思路，请务必掌握这一技巧。
@@ -3047,11 +2757,8 @@
 线段长度可以一边遍历数组 a，一边用一个 last map 记录。</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/522/submission/173138916</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -3072,8 +2779,6 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3094,11 +2799,6 @@
         </is>
       </c>
       <c r="C34" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/555/B</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
         <is>
           <t xml:space="preserve">输入
 4 4
@@ -3127,10 +2827,10 @@
 1 </t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="D34" t="n">
         <v>2000</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/555/173027350
 方法一：
@@ -3142,11 +2842,8 @@
 b 按照右端点排序，然后遍历 b，维护 a[i]&lt;=右端点的 a[i]，每次取 &gt;=左端点的最小的 a[i]，这可以用平衡树实现。</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/555/173027350</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -3167,8 +2864,6 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3187,11 +2882,6 @@
         </is>
       </c>
       <c r="C35" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1619/E</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
         <is>
           <t xml:space="preserve">输入
 5
@@ -3213,10 +2903,10 @@
 2 1 0 2 -1 -1 </t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="D35" t="n">
         <v>1700</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1619/submission/146932917
 提示 1：什么情况下会输出 -1？
@@ -3229,11 +2919,8 @@
 提示 4：用栈存储多余的数，栈顶就是提示 3 中需要操作的数。</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1619/submission/146932917</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -3254,8 +2941,6 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3273,11 +2958,6 @@
         </is>
       </c>
       <c r="C36" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/377/A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
         <is>
           <t>输入
 3 4 2
@@ -3303,10 +2983,10 @@
 .#.#</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="D36" t="n">
         <v>1600</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/377/submission/172785787
 考察对 DFS 的理解程度。
@@ -3315,11 +2995,8 @@
 注：也可以用 BFS 做。</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/377/submission/172785787</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -3340,8 +3017,6 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3359,11 +3034,6 @@
         </is>
       </c>
       <c r="C37" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1395/C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
         <is>
           <t>输入
 4 2
@@ -3383,10 +3053,10 @@
 输出 147</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="D37" t="n">
         <v>1600</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1395/submission/148506798
 方法一：暴力枚举
@@ -3400,11 +3070,8 @@
 可以参考 https://www.luogu.com.cn/blog/yltx/solution-cf1395c</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1395/submission/148506798</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -3425,8 +3092,6 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3445,11 +3110,6 @@
         </is>
       </c>
       <c r="C38" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/827/B</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
         <is>
           <t>输入
 3 2
@@ -3469,10 +3129,10 @@
 解释 见右图</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="D38" t="n">
         <v>1800</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/827/172319103
 提示 1：构造一个形如章鱼🐙的结构：根 + k 条链。
@@ -3480,11 +3140,8 @@
 上面代码的做法是，根的编号为 k+1，每条链的第一个节点的编号为 1~k。</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/827/172319103</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3505,8 +3162,6 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3524,11 +3179,6 @@
         </is>
       </c>
       <c r="C39" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/837/D</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
         <is>
           <t>输入
 3 2
@@ -3547,10 +3197,10 @@
 解释 选择 [9,77,13]，m=9009</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="D39" t="n">
         <v>2100</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/837/submission/172210710
 循环优化 https://codeforces.com/contest/837/submission/172219030
@@ -3564,11 +3214,8 @@
 注：对于每个数，因子 5 的个数至多有 25 个。</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/837/submission/172210710</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -3589,8 +3236,6 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3610,11 +3255,6 @@
         </is>
       </c>
       <c r="C40" t="inlineStr">
-        <is>
-          <t>http://codeforces.com/problemset/problem/543/A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
         <is>
           <t>输入
 3 3 3 100
@@ -3630,10 +3270,10 @@
 输出 0</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="D40" t="n">
         <v>1800</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/543/submission/172106263
 转换成二维费用的完全背包：
@@ -3645,11 +3285,8 @@
 代码实现时，第一个维度可以优化掉。</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/543/submission/172106263</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -3670,8 +3307,6 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3693,11 +3328,6 @@
         </is>
       </c>
       <c r="C41" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1494/C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
         <is>
           <t>输入
 5
@@ -3724,10 +3354,10 @@
 1</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="D41" t="n">
         <v>1900</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>三指针做法：https://codeforces.com/contest/1494/submission/171998732
 二分做法：https://codeforces.com/contest/1494/submission/109374034
@@ -3735,11 +3365,8 @@
 提示 2：以正数为例，枚举每个特殊位置，把连续箱子中最右的那个箱子推到这个位置上，能有多少个箱子在特殊位置上？</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1494/submission/171998732</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -3760,8 +3387,6 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3779,11 +3404,6 @@
         </is>
       </c>
       <c r="C42" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1197/D</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
         <is>
           <t>输入
 7 3 10
@@ -3795,10 +3415,10 @@
 输出 0</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="D42" t="n">
         <v>1900</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1197/submission/126967539
 提示 1-1：m=1 要怎么做？
@@ -3815,11 +3435,8 @@
 注意用 64 位整型。</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1197/submission/126967539</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -3840,8 +3457,6 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3858,11 +3473,6 @@
         </is>
       </c>
       <c r="C43" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1400/D</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
         <is>
           <t>输入
 2
@@ -3878,10 +3488,10 @@
 第二组数据，(1,2,4,6) 和 (1,3,4,6) 是符合要求的。</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="D43" t="n">
         <v>1900</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1400/submission/171470018
 提示 1：枚举 j 和 l。
@@ -3890,11 +3500,8 @@
 注意用 64 位整数。</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1400/submission/171470018</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -3915,8 +3522,6 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3936,11 +3541,6 @@
         </is>
       </c>
       <c r="C44" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/896/A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
         <is>
           <t>输入
 3
@@ -3971,10 +3571,10 @@
 输出 Areyoubusy</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="D44" t="n">
         <v>1700</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/896/submission/171298801
 提示 1：写一个递归 or 迭代。  F(n,k)
@@ -3983,11 +3583,8 @@
 我用的迭代写法，递归写法见右 @L.K</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/896/submission/171298801</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -4008,8 +3605,6 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4028,11 +3623,6 @@
         </is>
       </c>
       <c r="C45" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/371/D</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
         <is>
           <t>输入
 2
@@ -4064,21 +3654,18 @@
 5</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="D45" t="n">
         <v>1800</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/371/submission/125191890
 提示 1：并查集
 提示 2：并查集应当实现：每个容器指向当前或下一个没有装满的容器</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/371/submission/125191890</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -4099,8 +3686,6 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4120,11 +3705,6 @@
         </is>
       </c>
       <c r="C46" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/729/problem/D</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
         <is>
           <t>输入
 5 1 2 1
@@ -4140,10 +3720,10 @@
 7 11</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="D46" t="n">
         <v>1700</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/729/submission/171022830
 提示 1：【跳跃性思维】射中所有船，需要发射多少次？
@@ -4151,11 +3731,8 @@
 提示 3：由于只需要射中一艘船，可以少发射 a-1 次。</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/729/submission/171022830</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -4176,8 +3753,6 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4194,11 +3769,6 @@
         </is>
       </c>
       <c r="C47" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/484/A</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
         <is>
           <t>输入
 3
@@ -4211,10 +3781,10 @@
 7</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="D47" t="n">
         <v>1700</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/484/170918872
 提示 1：由于要 ≥L，可以尝试从 L 出发，把 L 的二进制中的 0 改成 1，使得修改之后 L≤R。
@@ -4223,11 +3793,8 @@
 思考题解答：方法类似，从 R 出发把 1 改成 0。</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/484/170918872</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -4248,8 +3815,6 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4267,11 +3832,6 @@
         </is>
       </c>
       <c r="C48" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1168/A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
         <is>
           <t>输入
 5 3
@@ -4285,10 +3845,10 @@
 解释 选择 6 和 2，操作后 a=[0,0,1,3,3]</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="D48" t="n">
         <v>1700</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1168/170572944
 提示 1：至多需要操作多少次？
@@ -4301,11 +3861,8 @@
 二分下界可以根据输入来优化吗？</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1168/170572944</t>
-        </is>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -4326,8 +3883,6 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4344,11 +3899,6 @@
         </is>
       </c>
       <c r="C49" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1207/D</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
         <is>
           <t>输入
 3
@@ -4376,10 +3926,10 @@
 输出 4</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="D49" t="n">
         <v>1800</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1207/170446877
 提示 1：正难则反。
@@ -4394,11 +3944,8 @@
 注意：由于有取模，作减法可能会产生负数。</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1207/170446877</t>
-        </is>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -4419,8 +3966,6 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4440,11 +3985,6 @@
         </is>
       </c>
       <c r="C50" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/933/A</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
         <is>
           <t>输入
 4
@@ -4458,10 +3998,10 @@
 解释 翻转 [2,2,2,1,1]，得到 [1,1,1,1,2,2,2,2,2,1]。</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="D50" t="n">
         <v>1800</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/933/submission/117023821
 题目本质是将数组划分成 4 部分：11...22...11...22...，那么定义 dp[i][j] 表示前 i 个元素组成前 j 个部分的最长子序列的长度。
@@ -4469,11 +4009,8 @@
 代码实现时可以用滚动数组优化。</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/933/submission/117023821</t>
-        </is>
-      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -4494,8 +4031,6 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4516,11 +4051,6 @@
         </is>
       </c>
       <c r="C51" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1537/E1</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
         <is>
           <t>输入
 8 16
@@ -4535,13 +4065,13 @@
 aaaaa</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>1600（简单版本）
 2200（困难版本）</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1537/170118286
 提示 1：操作的本质是，答案一定由 s 的某些前缀组成。
@@ -4552,11 +4082,8 @@
 https://www.luogu.com.cn/blog/zankizero/ti-xie-cf1537e2-erase-and-extend-hard-version</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1537/170118286</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -4577,8 +4104,6 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4599,11 +4124,6 @@
         </is>
       </c>
       <c r="C52" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1551/D1</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
         <is>
           <t>输入
 8
@@ -4626,13 +4146,13 @@
 NO</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>1700（简单版本）
 2100（困难版本）</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1551/170038881
 提示 1：讨论 n 或 m 的奇偶性。什么情况下输出 NO？
@@ -4644,11 +4164,8 @@
 具体实现技巧见代码。</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1551/170038881</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -4669,8 +4186,6 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4691,11 +4206,6 @@
         </is>
       </c>
       <c r="C53" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1611/F</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
         <is>
           <t>输入
 3
@@ -4713,10 +4223,10 @@
 第一组数据，子数组 [2,-6,8] 的前缀和为 2 -4 4，均 ≥ -10。</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="D53" t="n">
         <v>1800</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1611/submission/169674825
 O(n) 做法：前缀和 + 双指针。
@@ -4727,12 +4237,7 @@
 思考：为什么这样做是正确的？在可以移动右指针时，为什么不会出现中间某个前缀和 &lt; -s 的情况？</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1611/submission/169674825</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>对于这题，我的做法是固定左指针，去看右指针 r 能在哪些范围，或者说 r 最远能到哪。
 要做到比 O(n^2) 的暴力低，关键在于 r 是不会往左移动的，因为你只会得到更短的答案。
@@ -4740,11 +4245,13 @@
 画一个前缀和的折线图就明白了。</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>评注：这题加深了我对双指针的理解。</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -4763,8 +4270,6 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4783,11 +4288,6 @@
         </is>
       </c>
       <c r="C54" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/691/C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
         <is>
           <t>输入 16
 输出 1.6E1
@@ -4799,21 +4299,18 @@
 输出 1E2</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="D54" t="n">
         <v>1800</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/691/submission/169524952
 实现技巧：标准化，去掉前缀和后缀的 0，如果没有小数点在末尾加上小数点。
 见代码注释。没有感情，全是技巧。</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/691/submission/169524952</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -4834,8 +4331,6 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4854,11 +4349,6 @@
         </is>
       </c>
       <c r="C55" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/482/B</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
         <is>
           <t>输入
 3 1
@@ -4874,10 +4364,10 @@
 NO</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="D55" t="n">
         <v>1800</v>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>提示 1：分别考虑每个比特位。
 提示 2：区间 AND = 1 表示这个区间的比特全是 1；区间 AND = 0 表示这个区间的比特存在 0。
@@ -4891,11 +4381,8 @@
 线段树的做法见 https://wangguankan.blog.luogu.org/solution-cf482b</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/482/169488471</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -4916,8 +4403,6 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4942,11 +4427,6 @@
         </is>
       </c>
       <c r="C56" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1108/E1</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
         <is>
           <t>输入
 5 4
@@ -4978,13 +4458,13 @@
 0</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>1800（简单版本）
 2100（困难版本）</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1108/169394119
 提示 1：枚举 a[i] 作为最大值，它需要减小吗？
@@ -4996,11 +4476,8 @@
 在这个过程中记录 a[i]-min 的最大值，以及对应的 a[i] 的下标 i，最后选择所有不包含 i 的区间。</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1108/169394119</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -5021,8 +4498,6 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5041,11 +4516,6 @@
         </is>
       </c>
       <c r="C57" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1016/D</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
         <is>
           <t>输入
 2 3
@@ -5063,10 +4533,10 @@
 NO</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="D57" t="n">
         <v>1800</v>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1016/169303183
 思考方向：尝试一下 n=m=2 的情况。
@@ -5075,11 +4545,8 @@
 提示 3：直截了当的做法是，除了左上角，第一行填 b[j]，第一列填 a[i]。左上角应该填什么数？</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1016/169303183</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -5100,8 +4567,6 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5122,11 +4587,6 @@
         </is>
       </c>
       <c r="C58" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1066/E</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
         <is>
           <t>输入
 4 4
@@ -5140,20 +4600,17 @@
 输出 11</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="D58" t="n">
         <v>1700</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1066/submission/168906109
 考虑 a 的每个 1，对答案的贡献是多少？</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1066/submission/168906109</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -5174,8 +4631,6 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5196,11 +4651,6 @@
         </is>
       </c>
       <c r="C59" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1032/C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
         <is>
           <t xml:space="preserve">输入
 5
@@ -5219,10 +4669,10 @@
 1 3 4 5 4 5 4 5 4 5 4 5 4 3 5 4 3 5 4 </t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="D59" t="n">
         <v>1700</v>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>纯构造做法
 https://www.luogu.com.cn/blog/endlesscheng/solution-cf1032c
@@ -5233,21 +4683,14 @@
 具体实现技巧见代码。</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1032c</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1032/168783486</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1032/168783486</t>
-        </is>
-      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -5266,9 +4709,6 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5286,11 +4726,6 @@
         </is>
       </c>
       <c r="C60" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/652/C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
         <is>
           <t>输入
 4 2
@@ -5310,10 +4745,10 @@
 输出 20</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="D60" t="n">
         <v>1800</v>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/652/submission/168633147
 62ms 快读 https://codeforces.com/problemset/submission/652/168657078
@@ -5327,11 +4762,8 @@
 由于输入量巨大，代码的耗时主要在读入上。</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/652/submission/168633147</t>
-        </is>
-      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -5352,8 +4784,6 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5373,11 +4803,6 @@
         </is>
       </c>
       <c r="C61" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1249/E</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
         <is>
           <t xml:space="preserve">输入
 10 2
@@ -5393,10 +4818,10 @@
 0 2 4 7 8 11 13 14 16 17 </t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="D61" t="n">
         <v>1700</v>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1249/submission/164834657
 定义 f[i][0/1] 表示到达第 i 层，且是用楼梯/电梯到达时的最短时间。
@@ -5406,11 +4831,8 @@
 利用滚动数组可以做到 O(1) 空间复杂度。</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1249/submission/164834657</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -5431,8 +4853,6 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5455,11 +4875,6 @@
         </is>
       </c>
       <c r="C62" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/954/C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
         <is>
           <t>输入
 8
@@ -5480,10 +4895,10 @@
 4 9</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="D62" t="n">
         <v>1700</v>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/954/submission/143601524
 提示 1：在知道 y 的前提下，a[i]-a[i+1] 只能是哪些值？（代码的第一个 for，变量名用的 m 表示 y）
@@ -5491,11 +4906,8 @@
 具体实现逻辑见代码。</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/954/submission/143601524</t>
-        </is>
-      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -5516,8 +4928,6 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5535,11 +4945,6 @@
         </is>
       </c>
       <c r="C63" t="inlineStr">
-        <is>
-          <t>http://codeforces.com/problemset/problem/1368/D</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
         <is>
           <t>输入
 1
@@ -5557,10 +4962,10 @@
 输出 1099509530625</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="D63" t="n">
         <v>1700</v>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1368/submission/167929428
 提示 1：操作不会改变 a[i]+a[j] 的值。
@@ -5569,18 +4974,15 @@
 具体实现逻辑见代码。</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1368/submission/167929428</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>@hqzture 说可以 O(n)，原理见 
 https://leetcode.cn/problems/total-hamming-distance/solution/onwei-yun-suan-by-hqztrue-z5oo/
 https://zhuanlan.zhihu.com/p/72730434</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -5600,8 +5002,6 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5621,11 +5021,6 @@
         </is>
       </c>
       <c r="C64" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1217/problem/C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
         <is>
           <t>输入
 4
@@ -5641,10 +5036,10 @@
 解释 第一个数据有 "1" "1" "10" "011" 这 4 个。</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="D64" t="n">
         <v>1700</v>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1217/submission/167830191
 做法不止一种，这里说一个效率更好的解法。
@@ -5656,11 +5051,8 @@
 更紧的界：https://www.yuque.com/docs/share/9a07a90f-c56d-410b-97e8-b68bb97f7638  @啇水苍秀</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1217/submission/167830191</t>
-        </is>
-      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -5681,8 +5073,6 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5704,11 +5094,6 @@
         </is>
       </c>
       <c r="C65" t="inlineStr">
-        <is>
-          <t>http://codeforces.com/problemset/problem/1582/E</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
         <is>
           <t>输入
 5
@@ -5730,10 +5115,10 @@
 1</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="D65" t="n">
         <v>2000</v>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1582/submission/165737186
 提示 1：k 至多是多少？
@@ -5748,11 +5133,8 @@
 代码实现中可以用两个数组滚动优化掉第一个维度。</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1582/submission/165737186</t>
-        </is>
-      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -5773,8 +5155,6 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5792,11 +5172,6 @@
         </is>
       </c>
       <c r="C66" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/467/C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
         <is>
           <t>输入
 5 2 1
@@ -5808,10 +5183,10 @@
 输出 61</t>
         </is>
       </c>
-      <c r="E66" t="n">
+      <c r="D66" t="n">
         <v>1700</v>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/467/submission/167580710
 定义 f[i][j] 表示前 j 个元素选 i 个子数组，能得到的最大的元素和。
@@ -5823,17 +5198,14 @@
 环形的话，枚举前 m 个位置当作数组的起点，O(nmk) 可以通过。</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/467/submission/167580710</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>“最后一个元素” 让我想到了 2209. 用地毯覆盖后的最少白色砖块 https://leetcode.cn/problems/minimum-white-tiles-after-covering-with-carpets/
 这两题还是挺像的。</t>
         </is>
       </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
@@ -5853,8 +5225,6 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5877,11 +5247,6 @@
         </is>
       </c>
       <c r="C67" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1469/C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
         <is>
           <t>输入
 3
@@ -5898,10 +5263,10 @@
 解释 第一组数据见右图</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="D67" t="n">
         <v>1600</v>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1469/submission/167464872
 上下界分析。
@@ -5912,11 +5277,8 @@
 具体实现见代码。</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1469/submission/167464872</t>
-        </is>
-      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -5937,8 +5299,6 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5955,11 +5315,6 @@
         </is>
       </c>
       <c r="C68" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/280/B</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
         <is>
           <t>输入
 5
@@ -5973,10 +5328,10 @@
 解释 对于子数组 [8,3,5,7]，最大值^次大值 = 8^7 = 15</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="D68" t="n">
         <v>1800</v>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/280/submission/167043237
 枚举每个 a[i] 作为次大值，找 a[i] 左边和右边最近的比 a[i] 大的数，作为最大值。
@@ -5984,11 +5339,8 @@
 实现的时候只需要一个栈+一次遍历，见代码。</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/280/submission/167043237</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -6009,8 +5361,6 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6028,11 +5378,6 @@
         </is>
       </c>
       <c r="C69" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/808/D</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
         <is>
           <t>输入
 3
@@ -6050,12 +5395,12 @@
 解释 把 4 往左移一位，得到 [2,2,4,3,5]，sum([2,2,4]) = sum([3,5]) = 8</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1900（个人感觉是 1700）</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
-        <is>
-          <t>1900（个人感觉是 1700）</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/808/submission/166868234
 Python 写法见右 @七水
@@ -6066,11 +5411,8 @@
 如果都不行则输出 NO。</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/808/submission/166868234</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -6091,8 +5433,6 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr"/>
-      <c r="AC69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6113,11 +5453,6 @@
         </is>
       </c>
       <c r="C70" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1060/C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
         <is>
           <t>输入
 3 3
@@ -6133,10 +5468,10 @@
 输出 1</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="D70" t="n">
         <v>1600</v>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1060/submission/166757182
 子矩阵的元素和等于 a 和 b 的子数组的元素和的积。
@@ -6145,11 +5480,8 @@
 （最后这部分的遍历可以用双指针优化到 O(n+m)）</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1060/submission/166757182</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -6170,8 +5502,6 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6188,11 +5518,6 @@
         </is>
       </c>
       <c r="C71" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1043/D</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
         <is>
           <t>输入
 3 2
@@ -6218,10 +5543,10 @@
 解释 [1] [2]</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="D71" t="n">
         <v>1700</v>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1043/submission/166640293
 62ms 快读 https://codeforces.com/contest/1043/submission/166640185
@@ -6231,11 +5556,8 @@
 这样可以得到右端点为 j 的子数组的最长长度，从而得到子数组的个数。</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1043/submission/166640293</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -6256,8 +5578,6 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6273,11 +5593,6 @@
         </is>
       </c>
       <c r="C72" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1519/problem/D</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
         <is>
           <t>输入
 5
@@ -6299,10 +5614,10 @@
 解释 反转 a 中的 [7,6,3]，得到 [1,8,3,6,7,6]，sum(a[i]*b[i])=235。</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="D72" t="n">
         <v>1600</v>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1519/submission/166430407
 暴力枚举是 O(n^3) 的，如何优化？
@@ -6311,11 +5626,8 @@
 你也可以从区间 DP 的角度思考，见 https://www.luogu.com.cn/blog/292315/solution-cf1519d</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1519/submission/166430407</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -6336,8 +5648,6 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6355,11 +5665,6 @@
         </is>
       </c>
       <c r="C73" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/175/problem/C</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
         <is>
           <t>输入
 1
@@ -6378,21 +5683,18 @@
 解释 所有怪物的得分系数均为 1，总分=3*8*1+5*10*1=74</t>
         </is>
       </c>
-      <c r="E73" t="n">
+      <c r="D73" t="n">
         <v>1600</v>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/175/submission/166070298
 贪心：按照得分从小到大打怪（排序不等式），这可以用双指针模拟。
 为了方便计算，可以将 p 数组转换成每一段的长度（注意 p 数组实际上是一个前缀和），并在末尾加上一个 1e18 的哨兵。</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/175/submission/166070298</t>
-        </is>
-      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -6413,8 +5715,6 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6435,11 +5735,6 @@
         </is>
       </c>
       <c r="C74" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/494/A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
         <is>
           <t>输入 (((#)((#)
 输出
@@ -6457,10 +5752,10 @@
 输出 -1</t>
         </is>
       </c>
-      <c r="E74" t="n">
+      <c r="D74" t="n">
         <v>1500</v>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t xml:space="preserve">https://codeforces.com/contest/494/submission/165854447
 先把 '#' 改成 ')'，问题转换成可以在 '#' 的位置插入任意个 ')'。
@@ -6472,12 +5767,7 @@
 如果处理的是一个前面的 '#'，那要是遇到中间的 d 值小于末尾的 d 值，就会失败。那不如直接处理最后一个更优。 </t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/494/submission/165854447</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>说一点和这题有关的故事，这题是我在 19 年刚回坑时做的，当时写了个比较麻烦的 replace 的做法，而且还 WA 了一发。
 https://codeforces.com/contest/494/submission/61223061
@@ -6486,6 +5776,8 @@
 你们在看我题解的时候，会发现我经常写出更加简洁的做法，CF 或者 LC 上。其实我也是从算法萌新一步步走过来的，不过我有一个习惯，就是喜欢到处看别人写的代码，比如运行最快、代码最短、通过最早等等，分析不同写法的优劣之处；有时还会看别人写错的代码，分析别人为什么会写错。很多很细节的东西，书上是不会讲的，就是零散地分布在互联网的小角落里了，等着你去发现，化为己用。</t>
         </is>
       </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -6505,8 +5797,6 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
-      <c r="AB74" t="inlineStr"/>
-      <c r="AC74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6525,11 +5815,6 @@
         </is>
       </c>
       <c r="C75" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1281/problem/B</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
         <is>
           <t>输入
 3
@@ -6542,10 +5827,10 @@
 APPLE</t>
         </is>
       </c>
-      <c r="E75" t="n">
+      <c r="D75" t="n">
         <v>1600</v>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1281/submission/165847470
 不妨求 s 交换一次后的最小字典序 s'，然后看 s' &lt; c 是否成立。
@@ -6555,11 +5840,8 @@
 群友写的 O(n) 时间 + O(1) 额外空间的写法 -&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1281/submission/165847470</t>
-        </is>
-      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -6580,8 +5862,6 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
-      <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6599,11 +5879,6 @@
         </is>
       </c>
       <c r="C76" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1467/problem/C</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
         <is>
           <t>输入
 2 4 1
@@ -6620,13 +5895,13 @@
 输出 29</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>1900
 （也有 1500 分的做法）</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1467/submission/165643711
 提示：负负得正。
@@ -6648,11 +5923,8 @@
 https://codeforces.com/contest/1467/submission/165648547</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1467/submission/165643711</t>
-        </is>
-      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -6673,8 +5945,6 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
-      <c r="AB76" t="inlineStr"/>
-      <c r="AC76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6692,11 +5962,6 @@
         </is>
       </c>
       <c r="C77" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/297/B</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
         <is>
           <t>输入
 3 3 3
@@ -6711,10 +5976,10 @@
 输出 NO</t>
         </is>
       </c>
-      <c r="E77" t="n">
+      <c r="D77" t="n">
         <v>1600</v>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/297/submission/165616796
 首先如果 n &gt; m，我们只需要将所有的鱼的重量设为一样，A 的重量之和就比 B 多了，输出 YES。
@@ -6723,11 +5988,8 @@
 代码实现时可以将数组从大到小排序，然后看是否有 a[i] &gt; b[i] 成立即可，具体见代码。</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/297/submission/165616796</t>
-        </is>
-      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -6748,8 +6010,6 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
-      <c r="AB77" t="inlineStr"/>
-      <c r="AC77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6766,11 +6026,6 @@
         </is>
       </c>
       <c r="C78" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1203/D2</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
         <is>
           <t>原题的样例不是很好，我这里造一个：
 输入
@@ -6781,10 +6036,10 @@
 解释：删除子串 xxx 后，s'=abxc，abc 是 s' 的子序列。</t>
         </is>
       </c>
-      <c r="E78" t="n">
+      <c r="D78" t="n">
         <v>1700</v>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1203/submission/165288618
 前后缀分解。
@@ -6796,11 +6051,8 @@
 代码实现时可以先算 suf，在计算 pre 的同时计算答案，这样可以节省一个数组。</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1203/submission/165288618</t>
-        </is>
-      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -6821,8 +6073,6 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
-      <c r="AB78" t="inlineStr"/>
-      <c r="AC78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6841,11 +6091,6 @@
         </is>
       </c>
       <c r="C79" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1196/D2</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
         <is>
           <t>输入
 3
@@ -6864,20 +6109,17 @@
 第二组数据：不用修改，BRG 就是 RGB 子串。</t>
         </is>
       </c>
-      <c r="E79" t="n">
+      <c r="D79" t="n">
         <v>1600</v>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1196/submission/118029732
 枚举把 s 修改成 RGBRGB.../GBRGBR.../BRGBRG...，然后做一个大小为 k 的滑窗即可。</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1196/submission/118029732</t>
-        </is>
-      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -6898,8 +6140,6 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
-      <c r="AB79" t="inlineStr"/>
-      <c r="AC79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6919,21 +6159,16 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://codeforces.com/contest/44/problem/H</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
           <t>输入 12345
 输出 48
 输入 09
 输出 15</t>
         </is>
       </c>
-      <c r="E80" t="n">
+      <c r="D80" t="n">
         <v>1700</v>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/44/submission/164897245
 定义 f[i][j] 表示 t 的前 i 个数字，末尾为 j 的方案数。
@@ -6947,17 +6182,14 @@
 思考题：答案的上界是多少？如何构造一个让答案最大的输入？</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/44/submission/164897245</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>目前算出来的上界是 138015464838
 对应的输入为 "201001" + "01"*22</t>
         </is>
       </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -6977,8 +6209,6 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
-      <c r="AB80" t="inlineStr"/>
-      <c r="AC80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6996,11 +6226,6 @@
         </is>
       </c>
       <c r="C81" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1051/D</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
         <is>
           <t>输入 3 4
 输出 12（其中一种染色方案如图）
@@ -7010,10 +6235,10 @@
 输出 2</t>
         </is>
       </c>
-      <c r="E81" t="n">
+      <c r="D81" t="n">
         <v>1700</v>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>定义 f[i][j][0/1/2/3] 表示前 i 列组成 j 个连通块，且第 i 列的颜色组合是 白白/白黑/黑白/黑黑 的方案数。
 根据上一列的颜色组合来转移，具体见 https://codeforces.com/contest/1051/submission/164836262
@@ -7024,11 +6249,12 @@
 最终，我们优化到了 15ms。</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>相似题目：https://atcoder.jp/contests/abc248/tasks/abc248_f</t>
         </is>
       </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -7049,7 +6275,6 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
-      <c r="AB81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7068,11 +6293,6 @@
         </is>
       </c>
       <c r="C82" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/573/B</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
         <is>
           <t>输入
 6
@@ -7084,10 +6304,10 @@
 输出 2</t>
         </is>
       </c>
-      <c r="E82" t="n">
+      <c r="D82" t="n">
         <v>1600</v>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/573/164666280
 提示 1-1：把关注点放在每列积木被清除的时刻上。答案为所有积木列被清除时刻的最大值。
@@ -7096,11 +6316,8 @@
 提示 2-2：从左到右更新一遍，从右到左更新一遍。</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/573/164666280</t>
-        </is>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -7121,8 +6338,6 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
-      <c r="AB82" t="inlineStr"/>
-      <c r="AC82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7140,11 +6355,6 @@
         </is>
       </c>
       <c r="C83" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1081/B</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
         <is>
           <t>输入
 3
@@ -7165,10 +6375,10 @@
 Impossible</t>
         </is>
       </c>
-      <c r="E83" t="n">
+      <c r="D83" t="n">
         <v>1500</v>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1081/164214080
 提示 1：转换一下，有 n-a[i] 个数和 b[i] 相同。
@@ -7176,12 +6386,8 @@
 提示 3：如果同一组内的元素个数比 n-a[i] 还多，那么在构造 b 时，需要每隔 n-a[i] 个数就换一个值。这同时说明，如果组的大小不是 n-a[i] 的倍数，那么就无法构造。</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://codeforces.com/problemset/submission/1081/164214080
-</t>
-        </is>
-      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -7202,8 +6408,6 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
-      <c r="AB83" t="inlineStr"/>
-      <c r="AC83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7224,11 +6428,6 @@
         </is>
       </c>
       <c r="C84" t="inlineStr">
-        <is>
-          <t>http://codeforces.com/problemset/problem/468/A</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
         <is>
           <t>输入 1
 输出 NO
@@ -7244,10 +6443,10 @@
 25 + -1 = 24</t>
         </is>
       </c>
-      <c r="E84" t="n">
+      <c r="D84" t="n">
         <v>1500</v>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t xml:space="preserve">https://codeforces.com/contest/468/submission/164086516
 提示 1
@@ -7258,11 +6457,8 @@
 </t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/468/submission/164086516</t>
-        </is>
-      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -7283,8 +6479,6 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
-      <c r="AB84" t="inlineStr"/>
-      <c r="AC84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7304,11 +6498,6 @@
         </is>
       </c>
       <c r="C85" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/639/B</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
         <is>
           <t>输入 5 3 2
 输出（图左）
@@ -7329,10 +6518,10 @@
 1 5</t>
         </is>
       </c>
-      <c r="E85" t="n">
+      <c r="D85" t="n">
         <v>1600</v>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/639/163977647
 先说一般的构造逻辑：
@@ -7347,11 +6536,8 @@
 5. 然后就是一般的构造了。</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/639/163977647</t>
-        </is>
-      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -7372,8 +6558,6 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
-      <c r="AB85" t="inlineStr"/>
-      <c r="AC85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7392,11 +6576,6 @@
         </is>
       </c>
       <c r="C86" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1015/problem/D</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
         <is>
           <t>输入 10 2 15
 输出
@@ -7415,10 +6594,10 @@
 输出 NO</t>
         </is>
       </c>
-      <c r="E86" t="n">
+      <c r="D86" t="n">
         <v>1600</v>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1015/submission/163682002
 构造方法有多种，分享下我的做法（Z 字抖动）。
@@ -7432,11 +6611,8 @@
 实现见上面的代码。</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1015/submission/163682002</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -7457,8 +6633,6 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
-      <c r="AB86" t="inlineStr"/>
-      <c r="AC86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7476,11 +6650,6 @@
         </is>
       </c>
       <c r="C87" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1372/C</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
         <is>
           <t xml:space="preserve">输入
 2
@@ -7497,10 +6666,10 @@
 </t>
         </is>
       </c>
-      <c r="E87" t="n">
+      <c r="D87" t="n">
         <v>1500</v>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>O(1) 空间复杂度做法：
 https://codeforces.com/contest/1372/submission/163625532
@@ -7508,17 +6677,13 @@
 证明比较长，见官方题解 https://codeforces.com/blog/entry/79974</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://codeforces.com/contest/1372/submission/163625532
-</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>输出方案：https://www.codechef.com/submit/DEARRANGE</t>
         </is>
       </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -7538,8 +6703,6 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
-      <c r="AB87" t="inlineStr"/>
-      <c r="AC87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7560,11 +6723,6 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/1084/C</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
           <t>输入 abbaa
 输出 5
 解释 [0] [3] [4] [0,3] [0,4] 共 5 个
@@ -7572,10 +6730,10 @@
 输出 3</t>
         </is>
       </c>
-      <c r="E88" t="n">
+      <c r="D88" t="n">
         <v>1500</v>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1084/submission/136214166
 f[i] 表示 s 的前 i 个字母（的下标）组成的合法序列个数。
@@ -7586,11 +6744,8 @@
 实现时，f[] 可以压缩成一个变量。</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1084/submission/136214166</t>
-        </is>
-      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -7611,8 +6766,6 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
-      <c r="AB88" t="inlineStr"/>
-      <c r="AC88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7628,11 +6781,6 @@
         </is>
       </c>
       <c r="C89" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/788/A</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
         <is>
           <t>输入
 5
@@ -7646,10 +6794,10 @@
 解释 f(1,4)=abs(1-5)-abs(5-4)+abs(4-7)=4-1+3=6</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="D89" t="n">
         <v>1600</v>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/788/submission/118121760
 提示 1：奇偶性相同的 l，(-1)^(i-l) 的变化规律是一样的。
@@ -7657,11 +6805,8 @@
 提示 3：对 a 和 a[1:] 分别求一下，取最大值。</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/788/submission/118121760</t>
-        </is>
-      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -7682,8 +6827,6 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
-      <c r="AB89" t="inlineStr"/>
-      <c r="AC89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7700,12 +6843,6 @@
         </is>
       </c>
       <c r="C90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://codeforces.com/problemset/problem/1105/C
-</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
         <is>
           <t>输入 2 1 3
 输出 3
@@ -7717,10 +6854,10 @@
 输出 711426616</t>
         </is>
       </c>
-      <c r="E90" t="n">
+      <c r="D90" t="n">
         <v>1500</v>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1105/162950964
 定义 f[i][0/1/2] 表示长为 i，元素和为 0/1/2 的数组个数。
@@ -7729,11 +6866,8 @@
 进阶：实现 O(log n) 的做法。</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1105/162950964</t>
-        </is>
-      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -7754,8 +6888,6 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
-      <c r="AB90" t="inlineStr"/>
-      <c r="AC90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7774,11 +6906,6 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/166/E</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
           <t>输入 2
 输出 3
 解释 有 3 条路径：DAD, DBD, DCD
@@ -7786,10 +6913,10 @@
 输出 21</t>
         </is>
       </c>
-      <c r="E91" t="n">
+      <c r="D91" t="n">
         <v>1500</v>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/166/submission/132173160
 相对于起点 D，A/B/C 三点都是对称的。
@@ -7803,11 +6930,8 @@
 注意用 64 位整数。</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/166/submission/132173160</t>
-        </is>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -7828,8 +6952,6 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7847,11 +6969,6 @@
         </is>
       </c>
       <c r="C92" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1025/C</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
         <is>
           <t>输入 bwwwbwwbw
 输出 5
@@ -7861,21 +6978,18 @@
 解释 无需操作，wbw 为答案对应的子串。</t>
         </is>
       </c>
-      <c r="E92" t="n">
+      <c r="D92" t="n">
         <v>1600</v>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1025/162703560
 提示 1：把字符串首尾拼起来，形成一个环状的字符串。每次操作之后，字符串变成什么样了？（你可以在草稿纸上画出一个环形的 012345 下标序列，来模拟操作）
 问题实际上求的是 s+s 的最长 bw 交替子串（但不超过 len(s)）。</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1025/162703560</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -7896,8 +7010,6 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
-      <c r="AB92" t="inlineStr"/>
-      <c r="AC92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7916,11 +7028,6 @@
         </is>
       </c>
       <c r="C93" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1009/problem/D</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
         <is>
           <t>输入
 5 6
@@ -7938,10 +7045,10 @@
 Impossible</t>
         </is>
       </c>
-      <c r="E93" t="n">
+      <c r="D93" t="n">
         <v>1700</v>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1009/submission/86186458
 选择 m 个值不超过 n 的互质对，二重循环枚举即可，收集到 m 个时退出循环。
@@ -7949,12 +7056,8 @@
 注意判断 m&lt;n-1 的情况，此时图不是连通的，应输出 Impossible。</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://codeforces.com/contest/1009/submission/86186458
-</t>
-        </is>
-      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -7975,8 +7078,6 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
-      <c r="AB93" t="inlineStr"/>
-      <c r="AC93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7993,11 +7094,6 @@
         </is>
       </c>
       <c r="C94" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/518/problem/A</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
         <is>
           <t>输入
 aaaa
@@ -8011,10 +7107,10 @@
 No such string</t>
         </is>
       </c>
-      <c r="E94" t="n">
+      <c r="D94" t="n">
         <v>1600</v>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/518/submission/96459205
 把 s 看成一个数字，将其 +1。
@@ -8022,12 +7118,8 @@
 输出修改后的 s。如果这样做和 t 相同，就输出 No such string。</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://codeforces.com/contest/518/submission/96459205
-</t>
-        </is>
-      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -8048,8 +7140,6 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
-      <c r="AB94" t="inlineStr"/>
-      <c r="AC94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8075,11 +7165,6 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/1042/C</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
           <t>输入
 5
 5 -2 0 1 -3
@@ -8092,10 +7177,10 @@
 其余样例见原题。</t>
         </is>
       </c>
-      <c r="E95" t="n">
+      <c r="D95" t="n">
         <v>1700</v>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1042/submission/162207883
 把 0 看成是垃圾桶，所有 0 扔到同一个 0 里面，然后把 0 删除，这样可以去掉所有的 0。
@@ -8104,11 +7189,8 @@
 具体实现见上面代码。</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1042/submission/162207883</t>
-        </is>
-      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -8129,8 +7211,6 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
-      <c r="AB95" t="inlineStr"/>
-      <c r="AC95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8149,11 +7229,6 @@
         </is>
       </c>
       <c r="C96" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/439/C</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
         <is>
           <t>输入
 5 3 1
@@ -8170,10 +7245,10 @@
 输出 NO</t>
         </is>
       </c>
-      <c r="E96" t="n">
+      <c r="D96" t="n">
         <v>1700</v>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/439/162015618
 把所有数字按照奇偶性分成两组，叫做 e 组和 o 组（表示 even 和 odd）。
@@ -8189,11 +7264,8 @@
 推荐看看我上面贴的实现。有一些简化代码的小技巧。</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/439/162015618</t>
-        </is>
-      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -8214,8 +7286,6 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
-      <c r="AB96" t="inlineStr"/>
-      <c r="AC96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8234,11 +7304,6 @@
         </is>
       </c>
       <c r="C97" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/739/A</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
         <is>
           <t>输入
 5 3
@@ -8260,10 +7325,10 @@
 5 2 0 1</t>
         </is>
       </c>
-      <c r="E97" t="n">
+      <c r="D97" t="n">
         <v>1700</v>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/739/submission/108662174
 提示 1：答案至多是多少？
@@ -8273,11 +7338,8 @@
 可以，构造一个 0, 1, 2, ... L-1, 0, 1, 2, ..., L-1, 0, 1, 2, ... 的周期序列即可。</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/739/submission/108662174</t>
-        </is>
-      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -8298,8 +7360,6 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
-      <c r="AB97" t="inlineStr"/>
-      <c r="AC97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8317,11 +7377,6 @@
         </is>
       </c>
       <c r="C98" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1283/E</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
         <is>
           <t>输入
 4
@@ -8340,10 +7395,10 @@
 输出 3 6</t>
         </is>
       </c>
-      <c r="E98" t="n">
+      <c r="D98" t="n">
         <v>1800</v>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1283/submission/161609016
 贪心。先求出 cnt[x] 表示 x 出现的次数。
@@ -8357,17 +7412,14 @@
 具体实现见代码。</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1283/submission/161609016</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>扩展 1：如果改成每个数都有一个变动区间 [left[i], right[i]] 呢？
 扩展 2：如果改成可以动态添加删除 a 中的数字，每次添加删除后输出答案呢？</t>
         </is>
       </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -8387,8 +7439,6 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
-      <c r="AB98" t="inlineStr"/>
-      <c r="AC98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8407,11 +7457,6 @@
         </is>
       </c>
       <c r="C99" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1096/D</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
         <is>
           <t>输入
 6
@@ -8432,10 +7477,10 @@
 输出 0</t>
         </is>
       </c>
-      <c r="E99" t="n">
+      <c r="D99" t="n">
         <v>1800</v>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>写法一：https://codeforces.com/contest/1096/submission/161528827
 写法二：https://codeforces.com/contest/1096/submission/161524065
@@ -8454,7 +7499,7 @@
 实现时可以用滚动数组优化掉第一维。</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>dp[i][1/2/3/4] 分别表示
 不能有 h
@@ -8463,6 +7508,7 @@
 不能有 hard（可以有 har）</t>
         </is>
       </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -8483,7 +7529,6 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8500,11 +7545,6 @@
         </is>
       </c>
       <c r="C100" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1038/problem/D</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
         <is>
           <t>输入
 4
@@ -8521,10 +7561,10 @@
 解释 第一个卡比吃掉右边的四个。</t>
         </is>
       </c>
-      <c r="E100" t="n">
+      <c r="D100" t="n">
         <v>1800</v>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1038/submission/61225429
 从特例入手：
@@ -8537,11 +7577,8 @@
 注意特判 n=1 的情况。</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1038/submission/61225429</t>
-        </is>
-      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -8562,8 +7599,6 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr"/>
-      <c r="AB100" t="inlineStr"/>
-      <c r="AC100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8583,11 +7618,6 @@
         </is>
       </c>
       <c r="C101" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1446/B</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
         <is>
           <t>输入
 4 5
@@ -8607,10 +7637,10 @@
 输出 0</t>
         </is>
       </c>
-      <c r="E101" t="n">
+      <c r="D101" t="n">
         <v>1800</v>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1446/submission/161363517
 考虑（子串中的）每个字母的贡献。
@@ -8620,11 +7650,8 @@
 答案为 dp 数组的最大值。</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1446/submission/161363517</t>
-        </is>
-      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -8645,8 +7672,6 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
-      <c r="AB101" t="inlineStr"/>
-      <c r="AC101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8663,11 +7688,6 @@
         </is>
       </c>
       <c r="C102" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1092/problem/C</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
         <is>
           <t>输入
 5
@@ -8683,10 +7703,10 @@
 解释 这些输入是 "ababa" 的所有真前缀和真后缀。</t>
         </is>
       </c>
-      <c r="E102" t="n">
+      <c r="D102" t="n">
         <v>1700</v>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1092/submission/161272956
 设两个最长的字符串为 p 和 s，那么原串只可能是 p+s[-1] 或者 s+p[-1]。
@@ -8694,11 +7714,8 @@
 由于需要按照输入顺序回答，还需要额外记录每个输入对应的下标。</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1092/submission/161272956</t>
-        </is>
-      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -8719,8 +7736,6 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
-      <c r="AB102" t="inlineStr"/>
-      <c r="AC102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8740,11 +7755,6 @@
         </is>
       </c>
       <c r="C103" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1280/B</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
         <is>
           <t>输入
 4
@@ -8781,10 +7791,10 @@
 第一组数据见图，需要操作两次。</t>
         </is>
       </c>
-      <c r="E103" t="n">
+      <c r="D103" t="n">
         <v>1800</v>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1280/160912594
 分类讨论：
@@ -8797,11 +7807,8 @@
 其余：4 次（花费两次操作变为中间某一行或某一列全为 A 的情况）</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1280/160912594</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -8822,8 +7829,6 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="inlineStr"/>
-      <c r="AB103" t="inlineStr"/>
-      <c r="AC103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8840,11 +7845,6 @@
         </is>
       </c>
       <c r="C104" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/847/E</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
         <is>
           <t>输入 n=7, s="*..P*P*"
 输出 3
@@ -8853,10 +7853,10 @@
 输出 2</t>
         </is>
       </c>
-      <c r="E104" t="n">
+      <c r="D104" t="n">
         <v>1800</v>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/847/submission/160783663
 二分答案，设为 t，判断 t 时间内能否吃掉所有食物。
@@ -8866,11 +7866,8 @@
 注意二分上界至少是 3n/2。（我写的 2n）</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/847/submission/160783663</t>
-        </is>
-      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -8891,8 +7888,6 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
-      <c r="AB104" t="inlineStr"/>
-      <c r="AC104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8911,20 +7906,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/1136/D</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
           <t>输入 n=3, m=2, a=[3,2,1], pairs=[(3,1),(3,2)]
 输出 1
 解释 先交换 3 和 2，然后交换 3 和 1，那么 1 可以向左移动 1。</t>
         </is>
       </c>
-      <c r="E105" t="n">
+      <c r="D105" t="n">
         <v>1800</v>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1136/160698756
 用一个数组 mustInSwap 记录左边的人需要和哪些人交换，才可以让队尾那个人向左移动。
@@ -8933,12 +7923,8 @@
 答案为 n-len(mustInSwap)。</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://codeforces.com/problemset/submission/1136/160698756
-</t>
-        </is>
-      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -8959,8 +7945,6 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -8978,20 +7962,15 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/922/D</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
           <t>输入 n=4, a=["ssh","hs","s","hhhs"]
 输出 18
 解释 重排拼接成 "ssshhshhhs"，这里面有 18 个 "sh" 子序列。</t>
         </is>
       </c>
-      <c r="E106" t="n">
+      <c r="D106" t="n">
         <v>1800</v>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/922/submission/160482721
 参考我在 https://www.bilibili.com/video/BV18t4y1p736 中提到的邻项交换法，对于两个字符串 x 和 y，如果 
@@ -9001,16 +7980,13 @@
 相似题目：https://leetcode.cn/problems/largest-number/</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/922/submission/160482721</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>疑问：为什么直接在自定义排序里面求 count('s') 也能很快通过？是数据太弱还是快排保证了不会对一个很长的字符串做很多次 count('s')？</t>
         </is>
       </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -9030,8 +8006,6 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9052,20 +8026,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/1082/B</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
           <t>输入 n=10, s="GGGSGGGSGG"
 输出 7
 解释 把第一个 S 和最后一个 G 交换，得到 "GGGGGGGSGS"</t>
         </is>
       </c>
-      <c r="E107" t="n">
+      <c r="D107" t="n">
         <v>1600</v>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1082/submission/160202876
 按照 G 和 S 分组，每组是一个由连续相同字符组成的子串。
@@ -9075,18 +8044,15 @@
 另一种做法：https://codeforces.com/contest/1082/submission/160410421</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1082/submission/160202876</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>相似题目 https://leetcode.cn/problems/grumpy-bookstore-owner/
 扩展：如果交换的是任意不相交的等长两段呢？
 idea@可信编程小能手</t>
         </is>
       </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -9106,8 +8072,6 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
-      <c r="AB107" t="inlineStr"/>
-      <c r="AC107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9129,11 +8093,6 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://atcoder.jp/contests/agc007/tasks/agc007_b</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
           <t>输入 n=3, p=[2,3,1]
 输出
 a=[5,10,100]
@@ -9141,12 +8100,12 @@
 解释 10+10 &lt; 100+1 &lt; 5+100</t>
         </is>
       </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>~1700</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
-        <is>
-          <t>~1700</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
         <is>
           <t>https://atcoder.jp/contests/agc007/submissions/32349215
 我的思考过程：
@@ -9160,16 +8119,13 @@
 b[i] = n*(n-i)</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>https://atcoder.jp/contests/agc007/submissions/32349215</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>最坏情况下，max(a[n-1], b[0]) 的最小值可以是多少？</t>
         </is>
       </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -9189,8 +8145,6 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr"/>
-      <c r="AB108" t="inlineStr"/>
-      <c r="AC108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9209,11 +8163,6 @@
         </is>
       </c>
       <c r="C109" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/939/E</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
         <is>
           <t>输入
 Q=4
@@ -9225,10 +8174,10 @@
 解释 b=[1,5], max(b)-avg(b) = 5-3 = 2</t>
         </is>
       </c>
-      <c r="E109" t="n">
+      <c r="D109" t="n">
         <v>1800</v>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/939/159989325
 显然最后一个元素必须选（可以列个不等式证明），当作 max(b)；其余的元素需要选 a 的前缀，这样 avg(b) 才能尽量小。
@@ -9238,11 +8187,8 @@
 因此双指针即可求出要选择哪个前缀。</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/939/159989325</t>
-        </is>
-      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -9263,8 +8209,6 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="inlineStr"/>
-      <c r="AB109" t="inlineStr"/>
-      <c r="AC109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9285,11 +8229,6 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/732/D</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
           <t>输入 d=[0,1,0,2,1,0,2], a=[2,1]
 输出 5（天数从 1 开始）
 解释 d[0] 和 d[1] 备考课程 1，d[2] 备考课程 2，d[3] 通过课程 2，d[4] 通过课程 1
@@ -9297,21 +8236,18 @@
 输出 -1</t>
         </is>
       </c>
-      <c r="E110" t="n">
+      <c r="D110" t="n">
         <v>1700</v>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/732/submission/159901481
 二分答案。
 对于二分的 check 函数，从前往后遍历 d（i 不超过二分值），同时维护可以备考的天数 cnt，如果 d[i] 是当前课程的最后一次考试机会，那么 a[i] &gt; cnt 则无法通过第 i 门课程，返回 false，否则 cnt -= a[i] 继续遍历。如果可以通过所有课程则返回 true。</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/732/submission/159901481</t>
-        </is>
-      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -9332,8 +8268,6 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="inlineStr"/>
-      <c r="AB110" t="inlineStr"/>
-      <c r="AC110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9353,22 +8287,16 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://codeforces.com/problemset/problem/1118/E
-</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
           <t>输入 m=4, n=3
 输出 YES [(3,1),(1,3),(3,2),(2,3)]
 输入 m=13, n=4
 输出 NO</t>
         </is>
       </c>
-      <c r="E111" t="n">
+      <c r="D111" t="n">
         <v>1700</v>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/1118/159687007
 至多可以构造 n*(n-1) 个：
@@ -9386,11 +8314,8 @@
 n n-1</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/1118/159687007</t>
-        </is>
-      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -9411,8 +8336,6 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
-      <c r="AB111" t="inlineStr"/>
-      <c r="AC111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9432,11 +8355,6 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/723/C</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
           <t>输入 a=[1,2,3,2,2], m=2
 输出 2 1 [1,2,1,2,2]
 解释 修改一次后，[1,2] 内的每个数均出现至少两次
@@ -9444,10 +8362,10 @@
 输出 1 3 [1,2,3]</t>
         </is>
       </c>
-      <c r="E112" t="n">
+      <c r="D112" t="n">
         <v>1600</v>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/723/159598106
 最小次数的最大值为 n/m。
@@ -9455,11 +8373,8 @@
 我们可以找出大于 m 的和出现次数超过 n/m 的数字，将其修改为出现次数小于 n/m 的那些数字。</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/723/159598106</t>
-        </is>
-      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -9480,8 +8395,6 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9497,12 +8410,6 @@
         </is>
       </c>
       <c r="C113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://codeforces.com/problemset/problem/209/A
-</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
         <is>
           <t>输入 n=3
 输出 6
@@ -9518,14 +8425,15 @@
 输出 11</t>
         </is>
       </c>
-      <c r="E113" t="n">
+      <c r="D113" t="n">
         <v>1600</v>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>@小羊肖恩</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
@@ -9547,7 +8455,6 @@
       <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9563,11 +8470,6 @@
         </is>
       </c>
       <c r="C114" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/305/C</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
         <is>
           <t>输入 a=[0,1,1,1]
 输出 0
@@ -9577,10 +8479,10 @@
 解释 和为 8 (1000)</t>
         </is>
       </c>
-      <c r="E114" t="n">
+      <c r="D114" t="n">
         <v>1600</v>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/305/159205281
 用 set 模拟二进制加法，set 中存储比特位为 1 的位置。
@@ -9589,11 +8491,8 @@
 时间复杂度：每个比特位至多被添加和删除各一次，所以是 O(n) 的（如果你用的是哈希表的话）。</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/305/159205281</t>
-        </is>
-      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -9614,8 +8513,6 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr"/>
-      <c r="AC114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9633,11 +8530,6 @@
         </is>
       </c>
       <c r="C115" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/156/B</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
         <is>
           <t>输入 [+1], m=1
 输出 ["Truth"]
@@ -9647,10 +8539,10 @@
 输出 ["Lie","Not defined","Lie","Not defined"]</t>
         </is>
       </c>
-      <c r="E115" t="n">
+      <c r="D115" t="n">
         <v>1600</v>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/156/159122474
 枚举。
@@ -9658,11 +8550,8 @@
 然后遍历所有陈述，按照上面统计的结果来输出对应的字符串。</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/156/159122474</t>
-        </is>
-      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -9683,8 +8572,6 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="inlineStr"/>
-      <c r="AB115" t="inlineStr"/>
-      <c r="AC115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9700,11 +8587,6 @@
         </is>
       </c>
       <c r="C116" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/689/D</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
         <is>
           <t>输入 
 a=[1,2,3,2,1,4]
@@ -9713,10 +8595,10 @@
 解释 （下标从 0 开始的区间）[3,3] 和 [3,4]，对于 [3,3] 有 max(2)=min(2)，对于 [3,4] 有 max(2,1)=min(2,3)</t>
         </is>
       </c>
-      <c r="E116" t="n">
+      <c r="D116" t="n">
         <v>2100</v>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/689/submission/158934891
 枚举左端点，区间 max 单调递增，区间 min 单调递减，因此可以二分或者双(三)指针找 max&gt;=min 和 max&gt;min 的最小(左)位置，两者相减即为右端点的合法个数。
@@ -9724,22 +8606,15 @@
 话说这题改成 max^2 = min^2 还能不能做🤔</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/689/submission/158934891</t>
-        </is>
-      </c>
-      <c r="H116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t xml:space="preserve">https://www.bilibili.com/video/BV18t4y1p736
 </t>
         </is>
       </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>https://www.bilibili.com/video/BV18t4y1p736</t>
-        </is>
-      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
@@ -9758,9 +8633,6 @@
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="inlineStr"/>
-      <c r="AB116" t="inlineStr"/>
-      <c r="AC116" t="inlineStr"/>
-      <c r="AD116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9777,11 +8649,6 @@
         </is>
       </c>
       <c r="C117" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/949/A</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
         <is>
           <t>输入 s="0010100"
 输出 [[1,3,4],[2,5,6],[7]] （具体输出格式见原题）
@@ -9790,10 +8657,10 @@
 输出 -1</t>
         </is>
       </c>
-      <c r="E117" t="n">
+      <c r="D117" t="n">
         <v>1600</v>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/949/submission/158846414
 模拟。有两类 01 交替串，一类长度为奇数，一类长度为偶数。
@@ -9805,11 +8672,8 @@
 遍历结束后，如果没有长度为偶数的交替串，则找到了答案。</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/949/submission/158846414</t>
-        </is>
-      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -9830,8 +8694,6 @@
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
-      <c r="AB117" t="inlineStr"/>
-      <c r="AC117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9849,41 +8711,29 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/712/C</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
           <t>输入 x=6, y=3
 输出 4
 解释 (6,6,6) -&gt; (6,6,3) -&gt; (6,4,3) -&gt; (3,4,3) -&gt; (3,3,3)</t>
         </is>
       </c>
-      <c r="E118" t="n">
+      <c r="D118" t="n">
         <v>1600</v>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/712/submission/158586227
 正难则反。
 从边长为 y 的等边三角形出发，每次将最短的边修改为另外两条边的和减一，直到最短的边不低于 x。</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/712/submission/158586227</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://leetcode.cn/problems/reaching-points/</t>
         </is>
       </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>https://leetcode.cn/problems/reaching-points/</t>
-        </is>
-      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
@@ -9902,9 +8752,6 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr"/>
-      <c r="AB118" t="inlineStr"/>
-      <c r="AC118" t="inlineStr"/>
-      <c r="AD118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9921,11 +8768,6 @@
         </is>
       </c>
       <c r="C119" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1310/A</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
         <is>
           <t>输入
 a=[3,7,9,7,8]
@@ -9934,20 +8776,17 @@
 解释 把第二个数字加三次，得到 [3,10,9,7,8]，花费为 2*3=6</t>
         </is>
       </c>
-      <c r="E119" t="n">
+      <c r="D119" t="n">
         <v>1700</v>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1310a
 题解 by 灵茶山艾府</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1310a</t>
-        </is>
-      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -9968,8 +8807,6 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr"/>
-      <c r="AB119" t="inlineStr"/>
-      <c r="AC119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -9989,11 +8826,6 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/960/C</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
           <t>输入 x=4, d=2
 输出 n=4, a=[10,100,1000,10000]
 解释 每个元素单独形成一个子序列
@@ -10001,10 +8833,10 @@
 输出 n=6, a=[5,50,7,15,6,100]</t>
         </is>
       </c>
-      <c r="E120" t="n">
+      <c r="D120" t="n">
         <v>1700</v>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t xml:space="preserve">https://codeforces.com/contest/960/submission/158360849
 提示 1：对于一段长为 k 且元素均相同的段，这一段包含了 2^k-1 个好子序列。
@@ -10014,11 +8846,8 @@
 </t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/960/submission/158360849</t>
-        </is>
-      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -10039,8 +8868,6 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr"/>
       <c r="AA120" t="inlineStr"/>
-      <c r="AB120" t="inlineStr"/>
-      <c r="AC120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10061,11 +8888,6 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>https://codeforces.com/contest/358/problem/D</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
           <t>输入 
 a=[1 2 3 4]
 b=[4 3 2 1]
@@ -10074,19 +8896,16 @@
 解释 顺序为 4 3 2 1，得分为 a[3]+b[2]+b[1]+b[0]=4+2+3+4=13</t>
         </is>
       </c>
-      <c r="E121" t="n">
+      <c r="D121" t="n">
         <v>1800</v>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>https://www.luogu.com.cn/blog/littleseven/solution-cf358d</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/littleseven/solution-cf358d</t>
-        </is>
-      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -10107,8 +8926,6 @@
       <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr"/>
       <c r="AA121" t="inlineStr"/>
-      <c r="AB121" t="inlineStr"/>
-      <c r="AC121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10126,31 +8943,23 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/33/C</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
           <t>输入 [-1,10,-5,10,-2]
 输出 18
 解释 修改为 [1,10,-5,10,2]</t>
         </is>
       </c>
-      <c r="E122" t="n">
+      <c r="D122" t="n">
         <v>1800</v>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/33/submission/158116180
 设中间一段未被修改的元素和为 x，那么其余部分元素和为 sum(a)-x，取反后为 x-sum(a)，此时数组元素和为 2x-sum(a)。
 所以求个最大子段和即可。</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/33/submission/158116180</t>
-        </is>
-      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -10171,8 +8980,6 @@
       <c r="Y122" t="inlineStr"/>
       <c r="Z122" t="inlineStr"/>
       <c r="AA122" t="inlineStr"/>
-      <c r="AB122" t="inlineStr"/>
-      <c r="AC122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10193,20 +9000,15 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/747/D</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
           <t>输入 t=[-1,0,-1,0], k=3
 输出 2
 解释 前三天用雪地胎，最后一天用普通胎，因此第一天和最后一天要换轮胎</t>
         </is>
       </c>
-      <c r="E123" t="n">
+      <c r="D123" t="n">
         <v>1800</v>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/747/submission/157761183
 贪心。
@@ -10214,11 +9016,8 @@
 注意末尾非负连续段，这里覆盖了可以再减少一次更换次数。</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/747/submission/157761183</t>
-        </is>
-      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -10239,8 +9038,6 @@
       <c r="Y123" t="inlineStr"/>
       <c r="Z123" t="inlineStr"/>
       <c r="AA123" t="inlineStr"/>
-      <c r="AB123" t="inlineStr"/>
-      <c r="AC123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10261,11 +9058,6 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/797/C</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
           <t>输入 cab
 输出 abc
 解释：c 入栈，a 入栈，a 出栈，b 入栈，b 出栈，c 出栈
@@ -10273,10 +9065,10 @@
 输出 abdc</t>
         </is>
       </c>
-      <c r="E124" t="n">
+      <c r="D124" t="n">
         <v>1700</v>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>https://codeforces.com/problemset/submission/797/157636876
 贪心。
@@ -10284,11 +9076,8 @@
 遍历结束后把栈清空。</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/submission/797/157636876</t>
-        </is>
-      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -10309,8 +9098,6 @@
       <c r="Y124" t="inlineStr"/>
       <c r="Z124" t="inlineStr"/>
       <c r="AA124" t="inlineStr"/>
-      <c r="AB124" t="inlineStr"/>
-      <c r="AC124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10327,11 +9114,6 @@
         </is>
       </c>
       <c r="C125" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/815/A</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
         <is>
           <t>输入
 n=3, m=5
@@ -10353,10 +9135,10 @@
 -1</t>
         </is>
       </c>
-      <c r="E125" t="n">
+      <c r="D125" t="n">
         <v>1700</v>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/815/submission/157523558
 每行（或者每列）的差分数组必须都相同，如果有不同的就是 -1。
@@ -10364,16 +9146,13 @@
 也可以通过行或者列的最小值来直接求出每行每列操作多少次。</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/815/submission/157523558</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>相似题目 https://leetcode.cn/problems/remove-all-ones-with-row-and-column-flips/</t>
         </is>
       </c>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -10393,8 +9172,6 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr"/>
       <c r="AA125" t="inlineStr"/>
-      <c r="AB125" t="inlineStr"/>
-      <c r="AC125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10413,32 +9190,24 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/197/A</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
           <t>输入 a=5, b=5, r=2
 输出 First
 输入 a=6, b=7, r=4
 输出 Second</t>
         </is>
       </c>
-      <c r="E126" t="n">
+      <c r="D126" t="n">
         <v>1600</v>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/197/submission/157437054
 如果盘子可以放在桌子上，那么先手把盘子放在桌子正中央，那么无论后手怎么放，先手都可以放在关于桌子中心对称的位置上，这样最后一定是后手没法放盘子。
 因此只要盘子可以放在桌子上就是先手必胜，否则先手无法放任何盘子，必败。</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/197/submission/157437054</t>
-        </is>
-      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -10459,8 +9228,6 @@
       <c r="Y126" t="inlineStr"/>
       <c r="Z126" t="inlineStr"/>
       <c r="AA126" t="inlineStr"/>
-      <c r="AB126" t="inlineStr"/>
-      <c r="AC126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10482,21 +9249,16 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/1148/D</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
           <t>输入 [(1,7), (6,4), (2,10), (9,8), (3,5)]
 输出 k=3, id=[1,5,3]
 输入 [(5,4), (3,2), (6,1)]
 输出 k=3, id=[3,2,1]</t>
         </is>
       </c>
-      <c r="E127" t="n">
+      <c r="D127" t="n">
         <v>1800</v>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/1148/submission/157360894
 构造。
@@ -10505,11 +9267,8 @@
 选 pair 多的那一组作为答案。</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/1148/submission/157360894</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -10530,8 +9289,6 @@
       <c r="Y127" t="inlineStr"/>
       <c r="Z127" t="inlineStr"/>
       <c r="AA127" t="inlineStr"/>
-      <c r="AB127" t="inlineStr"/>
-      <c r="AC127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10551,11 +9308,6 @@
         </is>
       </c>
       <c r="C128" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/429/B</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
         <is>
           <t xml:space="preserve">
 输入
@@ -10567,10 +9319,10 @@
 解释如上图</t>
         </is>
       </c>
-      <c r="E128" t="n">
+      <c r="D128" t="n">
         <v>1600</v>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/429/submission/120031024
 计算 4 个 DP：
@@ -10583,11 +9335,8 @@
 注意交点不可能是网格图的边界。</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/429/submission/120031024</t>
-        </is>
-      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -10608,8 +9357,6 @@
       <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr"/>
       <c r="AA128" t="inlineStr"/>
-      <c r="AB128" t="inlineStr"/>
-      <c r="AC128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10628,31 +9375,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/778/A</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
           <t>输入 s="ababcba", t="abb", p=[5,3,4,1,7,6,2]
 输出 3
 解释 删除 s[5] s[3] s[4]（下标从 1 开始）得到 s'="abba"，满足 t 是 s' 的子序列</t>
         </is>
       </c>
-      <c r="E129" t="n">
+      <c r="D129" t="n">
         <v>1700</v>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/778/submission/88660596
 二分答案</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://codeforces.com/contest/778/submission/88660596
-</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -10673,8 +9411,6 @@
       <c r="Y129" t="inlineStr"/>
       <c r="Z129" t="inlineStr"/>
       <c r="AA129" t="inlineStr"/>
-      <c r="AB129" t="inlineStr"/>
-      <c r="AC129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10698,11 +9434,6 @@
         </is>
       </c>
       <c r="C130" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/878/A</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
         <is>
           <t>输入
 op = ['|', '^', '|']
@@ -10718,10 +9449,10 @@
 val' = [1]</t>
         </is>
       </c>
-      <c r="E130" t="n">
+      <c r="D130" t="n">
         <v>1600</v>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/878/submission/156773072
 位运算常用技巧：把每一位拆开单独算
@@ -10737,11 +9468,8 @@
 然后把结果为 0 的用 &amp; 来 set，把结果为 1 的用 | 来 set</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/878/submission/156773072</t>
-        </is>
-      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -10762,8 +9490,6 @@
       <c r="Y130" t="inlineStr"/>
       <c r="Z130" t="inlineStr"/>
       <c r="AA130" t="inlineStr"/>
-      <c r="AB130" t="inlineStr"/>
-      <c r="AC130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10783,11 +9509,6 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>http://codeforces.com/problemset/problem/282/C</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
           <t>输入 s="11", t="10"
 输出 "YES"
 输入 s="1", t="01"
@@ -10796,10 +9517,10 @@
 输出 "NO"</t>
         </is>
       </c>
-      <c r="E131" t="n">
+      <c r="D131" t="n">
         <v>1500</v>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/282/submission/156568861
 首先长度不同肯定不行。
@@ -10810,11 +9531,8 @@
 能变成全 1 只需要包含至少一个 1 就行了（每次把 10 或 01 变 11，直到没有 0）。</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/282/submission/156568861</t>
-        </is>
-      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -10835,8 +9553,6 @@
       <c r="Y131" t="inlineStr"/>
       <c r="Z131" t="inlineStr"/>
       <c r="AA131" t="inlineStr"/>
-      <c r="AB131" t="inlineStr"/>
-      <c r="AC131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10859,21 +9575,16 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/163/A</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
           <t>输入 s="aa", t="aa"
 输出 5
 输入 s="codeforces", t="forceofcode"
 输出 60</t>
         </is>
       </c>
-      <c r="E132" t="n">
+      <c r="D132" t="n">
         <v>1700</v>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/163/submission/117005013
 定义 dp[i][j] 表示考虑 s 的前 i 个字符，和 t 的前 j 的字符，并且子串 x 一定以 s[i-1] 结尾的答案。
@@ -10887,11 +9598,8 @@
 记得取模。</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/163/submission/117005013</t>
-        </is>
-      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -10912,8 +9620,6 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr"/>
       <c r="AA132" t="inlineStr"/>
-      <c r="AB132" t="inlineStr"/>
-      <c r="AC132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10929,11 +9635,6 @@
         </is>
       </c>
       <c r="C133" t="inlineStr">
-        <is>
-          <t>http://codeforces.com/problemset/problem/439/D</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
         <is>
           <t>输入 a=[2,3], b=[3,5]
 输出 3
@@ -10943,21 +9644,18 @@
 输出 0</t>
         </is>
       </c>
-      <c r="E133" t="n">
+      <c r="D133" t="n">
         <v>1700</v>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/439/submission/124942692
 三分 x，然后执行操作使得 min(a)&gt;=x&gt;=max(b) ，可以发现随着 x 的变大，操作次数从大到小再到大
 三分的知识见 https://oi-wiki.org/basic/binary/#_10</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/439/submission/124942692</t>
-        </is>
-      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -10978,8 +9676,6 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr"/>
       <c r="AA133" t="inlineStr"/>
-      <c r="AB133" t="inlineStr"/>
-      <c r="AC133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -10999,19 +9695,14 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/924/C</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
           <t>输入 m=[0 1 0 3 0 2]
 输出 6（见下图）</t>
         </is>
       </c>
-      <c r="E134" t="n">
+      <c r="D134" t="n">
         <v>1700</v>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>https://codeforces.com/contest/924/submission/156051485
 转换成计算 sum(每天至少有多少条线)
@@ -11019,11 +9710,8 @@
 注意答案可能会爆 int。</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/924/submission/156051485</t>
-        </is>
-      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -11044,8 +9732,6 @@
       <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr"/>
       <c r="AA134" t="inlineStr"/>
-      <c r="AB134" t="inlineStr"/>
-      <c r="AC134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -11095,11 +9781,6 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/913/C</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
           <t>输入 c=[20 30 70 90], L=12
 输出 150
 输入 c=[10000 1000 100 10], L=3
@@ -11108,10 +9789,10 @@
 输出 30</t>
         </is>
       </c>
-      <c r="E136" t="n">
+      <c r="D136" t="n">
         <v>1600</v>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t xml:space="preserve">https://codeforces.com/contest/913/submission/83199779
 方法一：二分答案
@@ -11123,12 +9804,7 @@
 </t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/913/submission/83199779</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>群友 @freya 的解释：
 预处理完价格后，从右往左遍历价格数组，用 目前还差的体积/当前位置的体积，在此时有两种方案：
@@ -11136,6 +9812,8 @@
 2，向下取整（获得部分体积，或者刚好够），去下一个更小的体积，继续重复操作。</t>
         </is>
       </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -11155,8 +9833,6 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr"/>
       <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr"/>
-      <c r="AC136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11180,11 +9856,6 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>http://codeforces.com/problemset/problem/893/D</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
           <t>输入 a=[-1 5 0 -5 3], d=10
 输出 0
 输入 a=[-5 0 10 -11 0], d=10
@@ -11193,10 +9864,10 @@
 输出 -1</t>
         </is>
       </c>
-      <c r="E137" t="n">
+      <c r="D137" t="n">
         <v>1900</v>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>两种做法：
 方法一：如果 a[i]=0 的时候钱 &lt;0，那么一定要去银行了，不妨贪心地充尽可能多的钱，同时保证后续的增减不会超过 d
@@ -11213,11 +9884,8 @@
 群主代码 https://codeforces.com/contest/893/submission/141785970</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/contest/893/submission/141785970</t>
-        </is>
-      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -11238,8 +9906,6 @@
       <c r="Y137" t="inlineStr"/>
       <c r="Z137" t="inlineStr"/>
       <c r="AA137" t="inlineStr"/>
-      <c r="AB137" t="inlineStr"/>
-      <c r="AC137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11255,11 +9921,6 @@
         </is>
       </c>
       <c r="C138" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/827/A</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
         <is>
           <t>输入
 n=3
@@ -11270,10 +9931,10 @@
 abacaba</t>
         </is>
       </c>
-      <c r="E138" t="n">
+      <c r="D138" t="n">
         <v>1700</v>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>每个出现的位置等价于一个操作：将区间 [x,x+len(substr)-1] 上的字符置为 substr。
 由于题目保证 s 是存在的，那么已经赋值字符的位置就不用重新赋值了，需要跳过，跳过操作可以用并查集来实现。
@@ -11281,6 +9942,7 @@
 https://codeforces.com/contest/827/submission/155731179</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
@@ -11302,7 +9964,6 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr"/>
       <c r="AA138" t="inlineStr"/>
-      <c r="AB138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11650,11 +10311,7 @@
           <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf830a</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf830a</t>
-        </is>
-      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
@@ -11676,7 +10333,6 @@
       <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr"/>
       <c r="AA144" t="inlineStr"/>
-      <c r="AB144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11716,11 +10372,7 @@
           <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1251d</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1251d</t>
-        </is>
-      </c>
+      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
@@ -11742,7 +10394,6 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr"/>
       <c r="AA145" t="inlineStr"/>
-      <c r="AB145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11781,11 +10432,7 @@
           <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1396a</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1396a</t>
-        </is>
-      </c>
+      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
@@ -11807,7 +10454,6 @@
       <c r="Y146" t="inlineStr"/>
       <c r="Z146" t="inlineStr"/>
       <c r="AA146" t="inlineStr"/>
-      <c r="AB146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11844,15 +10490,11 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1426f</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
           <t>相似题目 
 https://leetcode-cn.com/problems/number-of-ways-to-select-buildings/</t>
         </is>
       </c>
+      <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -11873,7 +10515,6 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr"/>
       <c r="AA147" t="inlineStr"/>
-      <c r="AB147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11911,11 +10552,7 @@
           <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1186d</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>https://www.luogu.com.cn/blog/endlesscheng/solution-cf1186d</t>
-        </is>
-      </c>
+      <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
@@ -11937,7 +10574,6 @@
       <c r="Y148" t="inlineStr"/>
       <c r="Z148" t="inlineStr"/>
       <c r="AA148" t="inlineStr"/>
-      <c r="AB148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12202,11 +10838,7 @@
           <t>https://github.com/EndlessCheng/codeforces-go/blob/master/copypasta/trie01.go#L231</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>https://github.com/EndlessCheng/codeforces-go/blob/master/copypasta/trie01.go#L231</t>
-        </is>
-      </c>
+      <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
@@ -12228,7 +10860,6 @@
       <c r="Y154" t="inlineStr"/>
       <c r="Z154" t="inlineStr"/>
       <c r="AA154" t="inlineStr"/>
-      <c r="AB154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -18294,15 +16925,10 @@
           <t>http://codeforces.com/problemset/problem/550/D</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>http://codeforces.com/problemset/problem/550/D</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>1900</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>图 构造</t>
         </is>
@@ -18319,15 +16945,10 @@
           <t>https://codeforces.com/problemset/problem/687/C</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/687/C</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>1900</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>DP</t>
         </is>
@@ -18344,12 +16965,7 @@
           <t>https://codeforces.com/problemset/problem/1416/C</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1416/C</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -18364,12 +16980,7 @@
           <t>https://codeforces.com/problemset/problem/292/D</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/292/D</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>1900</v>
       </c>
     </row>
@@ -18384,12 +16995,7 @@
           <t>https://codeforces.com/problemset/problem/703/D</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/703/D</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6" t="n">
         <v>2100</v>
       </c>
     </row>
@@ -18404,12 +17010,7 @@
           <t>https://codeforces.com/problemset/problem/1370/D</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1370/D</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="C7" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -18424,12 +17025,7 @@
           <t>https://codeforces.com/problemset/problem/1034/B</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://codeforces.com/problemset/problem/1034/B</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+      <c r="C8" t="n">
         <v>2200</v>
       </c>
     </row>
@@ -19728,11 +18324,6 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://codeforces.com/problemset/problem/383/D</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t xml:space="preserve">输入 [1,1,1,1]
 输出 12
 12 种方案如下（数字表示数组下标，+ 表示不变，- 表示取反）

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -537,9 +537,10 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>提示 1：元素的顺序并没有那么重要。
+          <t xml:space="preserve">https://atcoder.jp/contests/jsc2021/submissions/36189511
+提示 1：元素的顺序并没有那么重要。
 提示 2：每次修改时，只需要知道另一个数组中，有多少个数比自己小（这些数的个数乘上自己），以及≥自己的数的和是多少。
-最好写的应该是离散化+树状数组。</t>
+最好写的应该是离散化+树状数组。  </t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -612,10 +613,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://atcoder.jp/contests/abc201/submissions/36166044
+          <t xml:space="preserve">https://atcoder.jp/contests/abc201/submissions/36166044
 提示 1：逐位考虑。也就是假设边权只有 0 和 1。
 提示 2：xor(i,j) = xor(1,i) ^ xor(1,j)。
-提示 3：DFS，统计 xor(1,i) 中 1 的个数，记作 c。由于只有 1 和 0 异或才能是 1，这个比特位上的答案为 c * (n-c)。</t>
+提示 3：DFS，统计 xor(1,i) 中 1 的个数，记作 c。由于只有 1 和 0 异或才能是 1，这个比特位上的答案为 c * (n-c)。 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -538,6 +538,7 @@
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">https://atcoder.jp/contests/jsc2021/submissions/36189511
+https://atcoder.jp/contests/jsc2021/submissions/36189772
 提示 1：元素的顺序并没有那么重要。
 提示 2：每次修改时，只需要知道另一个数组中，有多少个数比自己小（这些数的个数乘上自己），以及≥自己的数的和是多少。
 最好写的应该是离散化+树状数组。  </t>

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -537,11 +537,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://atcoder.jp/contests/jsc2021/submissions/36189511
+          <t>https://atcoder.jp/contests/jsc2021/submissions/36189511
 https://atcoder.jp/contests/jsc2021/submissions/36189772
 提示 1：元素的顺序并没有那么重要。
 提示 2：每次修改时，只需要知道另一个数组中，有多少个数比自己小（这些数的个数乘上自己），以及≥自己的数的和是多少。
-最好写的应该是离散化+树状数组。  </t>
+最好写的应该是离散化+树状数组。  
+注意把 0 也加到离散化中。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -518,8 +518,26 @@
       <c r="D2" t="n">
         <v>1764</v>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://atcoder.jp/contests/abc162/submissions/36315908
+定义 f[i] 表示从前 i 个数中选 floor(i/2) 个数的最大收益。
+下面讨论的下标从 1 开始。
+f[0]=f[1]=0。
+对于 i≥2，
+如果选，那么 f[i] = f[i-2] + a[i]。
+如果不选：
+- 如果 i 为偶数，那么前面的选法是固定的，也就是所有奇数下标的和，记作 s。
+- 如果 i 为奇数，那么需要选 (i-1)/2 个数，在不选的情况下，相当于从前 i-1 个数中选 (i-1)/2 个数，这恰好是 f[i-1]。
+选或不选取 max。
+答案为 f[n]。</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>O(1) 空间写法</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -530,7 +530,7 @@
 P 中的每个向量和其在 Q 中垂直的向量是不能同时选的，把这些找出来，当成一组，计算方案数。
 具体见代码。
 根据乘法原理。每组的方案数可以相乘。
-最后统计 Q 中剩余向量的方案数；以及零向量的方案数，由于零向量只能选一个，所以方案数是 cnt0-1。</t>
+最后统计 Q 中剩余向量的方案数；以及零向量的方案数，由于零向量只能选一个，所以方案数是 cnt0；别忘了去掉一个都不选的方案。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -521,7 +521,7 @@
 类似 LCS，定义 f[i][j] 表示 a 的前 i 个元素和 b 的前 j 的元素算出的答案。
 - 不选 a[i] 选 a[j]：f[i-1][j]+1
 - 选 a[i] 不选 a[j]：f[i][j-1]+1
-- 选 a[i] 选 a[j]：f[i-1][j-1] + (a[i]==a[j] ? 1 : 0)
+- 选 a[i] 选 a[j]：f[i-1][j-1] + (a[i]==a[j] ? 0 : 1)
 取最小值。
 注：都不选是不用考虑的，这已经包含在 f[i-1][j] 或者 f[i][j-1] 中了。
 也可以这么想：都不选是不如都选的。

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -519,9 +519,9 @@
         <is>
           <t>https://atcoder.jp/contests/abc185/submissions/36352936
 类似 LCS，定义 f[i][j] 表示 a 的前 i 个元素和 b 的前 j 的元素算出的答案。
-- 不选 a[i] 选 a[j]：f[i-1][j]+1
-- 选 a[i] 不选 a[j]：f[i][j-1]+1
-- 选 a[i] 选 a[j]：f[i-1][j-1] + (a[i]==a[j] ? 0 : 1)
+- 不选 a[i] 选 b[j]：f[i-1][j]+1
+- 选 a[i] 不选 b[j]：f[i][j-1]+1
+- 选 a[i] 选 b[j]：f[i-1][j-1] + (a[i]==b[j] ? 0 : 1)
 取最小值。
 注：都不选是不用考虑的，这已经包含在 f[i-1][j] 或者 f[i][j-1] 中了。
 也可以这么想：都不选是不如都选的。

--- a/tea.xlsx
+++ b/tea.xlsx
@@ -512,14 +512,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>方法一：贡献法，对每个 p[i]，求上个、上上个、下个、下下个更大元素的位置，分别记作 L LL R RR。
+          <t>https://atcoder.jp/contests/abc140/submissions/36373341
+方法一：贡献法，对每个 p[i]，求上个、上上个、下个、下下个更大元素的位置，分别记作 L LL R RR。
 具体求法见双周赛第四题（链接见右）。
 那么 p[i] 对答案的贡献为 p[i] * ((L-LL)*(R-i) + (RR-R)*(i-L))。
 方法二：对于排列，其实不需要单调栈。
 用双向链表思考（实现时用的数组）：
-把 p 转换成双向链表，从小到大遍历 p[i]，那么方法一中的 4 个位置就是 p[i] 左边两个节点和右边两个节点。
+把 p 转换成双向链表，按元素值从小到大遍历 p[i]，那么方法一中的 4 个位置就是 p[i] 左边两个节点和右边两个节点。
 算完 p[i] 后把 p[i] 从链表中删掉。
-怎么用数组实现见代码。</t>
+怎么用数组实现见代码。 
+顺带一提，循环结束后，L[i] 和 R[i] 就是 p[i] 的上个/下个更大元素的位置。
+如果要求更小元素位置，倒序遍历即可。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
